--- a/output/GOres_D62noDIFFnoRAPA.xlsx
+++ b/output/GOres_D62noDIFFnoRAPA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="469">
   <si>
     <t xml:space="preserve">query</t>
   </si>
@@ -56,6 +56,12 @@
     <t xml:space="preserve">parents</t>
   </si>
   <si>
+    <t xml:space="preserve">evidence_codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intersection</t>
+  </si>
+  <si>
     <t xml:space="preserve">query_1</t>
   </si>
   <si>
@@ -71,19 +77,67 @@
     <t xml:space="preserve">GO:0008150</t>
   </si>
   <si>
+    <t xml:space="preserve">IEA,ISS IEA,IBA IEA,ISS IEA,IDA ISS,IDA HEP IBA TAS IEA,IMP,IMP,ISS NAS IEA,IMP ISS IEA,IEA,TAS,IMP,IEA,IBA,ISS,IBA TAS NAS IEA,TAS IEA,IDA,TAS,IBA,IBA,ISS,NAS IEA,ISS IBA,IEA,IEA,IDA IEA,IMP ISS TAS NAS IEA,IDA IEP,IMP ISS IBA IEA,TAS IEA,IEA,IMP IGI ISS IBA TAS NAS,IEA,ISS TAS IEA,IMP IBA,IDA IMP ISS,ISS IEA,IEA,IMP,IGI ISS TAS IEA,ISS IEA,IMP ISS IEA,IDA IEP ISO IEA,IMP ISS IBA TAS,NAS IEA,IEA,IBA IEA,IEA,IDA IMP ISS IEA,IEA,IEP IBA IEA,IDA IMP ISS TAS IEA,ISS,ISS IBA IEA,IEA,IBA TAS IEA,IEA,IEA,ISS IBA IEA,IEP,ISS IBA IEA,TAS,IDA ISS IEA,IDA IMP IGI ISS IBA TAS IEA,ISS IEA,IMP,IMP ISS IBA IEA,IMP,IMP IEA,IBA TAS IEA,IDA,IBA,TAS,IBA IEA,IBA IEA,IMP,IDA ISS IBA TAS IEA,IBA TAS,IDA IMP,IEA,IMP,IBA IEA,ISS,IEA,IMP IBA TAS IEA,IDA ISS NAS,IBA,IDA IMP ISS IBA TAS IEA,IEA,TAS,IMP IEA,IMP ISS IEA,IMP ISS IBA IEA,IMP IEA,IMP IBA IEA,ISS NAS IEA,IEA,IEP ISS IEA,TAS IEA,IDA IMP IBA IEA,IDA,TAS,IBA IEA,IEA,ISS IEA,ISS IEA,IEA,IEA,IDA IMP NAS IEA,IEP ISS IBA TAS IEA,IDA IMP IGI IEP IBA TAS NAS IC,IDA IMP ISS TAS IEA,IEA,IDA IMP ISS IEA,IDA IMP,ISS TAS NAS IEA,IDA IBA,ISS IEA,IBA,ISS IEA,IEA,IMP ISS IBA IEA,IMP IEP ISS,ISS IEA,ISS IEA,IDA IBA TAS IEA,IMP,IBA TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856,26038,3925,90853,23499,5052,2633,3321,10763,4921,5999,6004,1063,4811,5660,54541,5328,3988,143282,26509,9124,83742,6319,6468,642938,977,4004,10553,5080,960,26011,1410,1656,4035,4193,490,5829,3146,8660,23224,64093,9369,11245,2628,302,7168,23205,56963,23336,51330,2013,26471,4313,6376,9212,9423,9953,5376,7153,2670,54549,332,1000,4645,9518,348,27113,79784,91461,3099,1373,2637,10267,1299,3785,140578,116448,5121,1826,80781,23467,10752,23171,2596,11343,5947,8646,347,10460,5156,3490,2983,4889,3148,55714,1767,7204,6507,22836,2201,57717,2246,6678,9232,51299,222698,1026,3910,6196,221833,10457,4852,5054,5764,4747,2185,1191,5327,11075,114907,169044,340371,6194,2934,64855,56262,5730,1641,5358,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007275, GO:0048856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IBA IEA,IDA ISS,TAS,IMP,ISS NAS IEA,ISS IEA,IEA,IMP,IEA,IBA,ISS,IEA,IBA,IBA,IEA,IDA IEA,IMP ISS TAS NAS IEA,IEP,IMP ISS IBA IEA,IEA,IEA,ISS,IEA,IEA,IDA ISS,IEA,IEA,IMP,ISS TAS IEA,IDA IEP ISO IEA,IMP,NAS IEA,IEA,IEA,IDA IMP ISS IEA,IEA,IEA,IDA IMP ISS TAS IEA,ISS IBA IEA,IEA,IBA TAS IEA,IEA,ISS IBA IEA,ISS IBA IEA,IDA ISS TAS IEA,IMP ISS IBA IEA,IMP,IEA,IBA TAS IEA,IDA,IBA,TAS,IBA IEA,IBA IEA,IMP,IDA ISS IBA TAS IEA,IBA,IEA,IBA IEA,IMP TAS IEA,ISS NAS,IBA,ISS IBA IEA,IMP,ISS IEA,IMP ISS IBA IEA,IEA,IMP IBA IEA,IEA,IEA,IEP ISS IEA,TAS IEA,IDA IMP IBA IEA,IDA,IBA IEA,ISS IEA,IEA,IEA,NAS,IEP TAS,IMP IGI IEP IBA,IDA IMP ISS TAS IEA,IEA,IMP ISS IEA,IDA IMP,IDA IBA,IBA,ISS IEA,IBA,ISS,IDA IBA TAS IEA,IMP,IBA TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,23499,5052,3321,10763,4921,5999,1063,4811,5660,54541,3988,9124,83742,6468,10553,5080,960,26011,1410,1656,4035,4193,490,3146,8660,23224,64093,9369,302,7168,23205,56963,51330,2013,26471,4313,6376,9423,9953,5376,2670,54549,1000,348,91461,3099,1373,2637,10267,1299,3785,140578,116448,5121,1826,80781,10752,2596,8646,347,10460,5156,4889,3148,55714,1767,7204,6507,22836,2201,57717,2246,6678,51299,1026,3910,6196,10457,4852,5054,5764,4747,2185,1191,11075,169044,340371,2934,64855,1641,5358,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicellular organism development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032501, GO:0048856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IBA IEA,IDA ISS,TAS,IMP,ISS NAS IEA,IMP ISS IEA,IEA,IMP,IEA,IBA,ISS,IEA,IBA,IBA,NAS IEA,IDA IEA,IMP ISS TAS NAS IEA,IEP,IMP ISS IBA IEA,IEA,IEA,ISS,IEA,ISS IEA,IDA IMP ISS,IEA,IEA,IMP,ISS TAS IEA,IDA IEP ISO IEA,IMP,NAS IEA,IEA,IEA,IDA IMP ISS IEA,IEA,IEP IEA,IDA IMP ISS TAS IEA,ISS,ISS IBA IEA,IEA,IBA TAS IEA,IEA,IEA,ISS IBA IEA,ISS IBA IEA,IDA ISS TAS IEA,IMP ISS IBA IEA,IMP,IEA,IBA TAS IEA,IDA,IBA,TAS,IBA IEA,IBA IEA,IMP,IDA ISS IBA TAS IEA,IBA,IEA,IBA IEA,IEA,IMP IBA TAS IEA,ISS NAS,IBA,ISS IBA IEA,IEA,IMP,IMP ISS IEA,IMP ISS IBA IEA,IMP IEA,IMP IBA IEA,IEA,IEA,IEP ISS IEA,TAS IEA,IDA IMP IBA IEA,IDA,IBA IEA,ISS IEA,IEA,IEA,IEA,NAS,IEP TAS,IDA IMP IGI IEP IBA,IDA IMP ISS TAS IEA,IEA,IMP ISS IEA,IDA IMP,IDA IBA,IBA,ISS IEA,IEA,IBA,ISS,IDA IBA TAS IEA,IMP,IBA TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,23499,5052,3321,10763,4921,5999,1063,4811,5660,54541,3988,9124,83742,6468,10553,5080,960,26011,1410,1656,4035,4193,490,3146,8660,23224,64093,9369,302,7168,23205,56963,51330,2013,26471,4313,6376,9212,9423,9953,5376,7153,2670,54549,1000,348,91461,3099,1373,2637,10267,1299,3785,140578,116448,5121,1826,80781,10752,2596,5947,8646,347,10460,5156,3490,4889,3148,55714,1767,7204,6507,22836,2201,57717,2246,6678,51299,1026,3910,6196,221833,10457,4852,5054,5764,4747,2185,1191,11075,169044,340371,6194,2934,64855,1641,5358,10178</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0032502</t>
   </si>
   <si>
     <t xml:space="preserve">developmental process</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0048731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007275, GO:0048856</t>
+    <t xml:space="preserve">ISS IEA,IMP IBA IEA,ISS IEA,IDA ISS,IEA,TAS,IMP,IDA,ISS NAS IEA,IMP ISS IEA,IEA,IMP ISS IEA,NAS IEA,IBA,ISS,IDA IEA,IEA,IBA IEA,IBA,IBA,NAS IEA,IDA IMP,IDA IEA,IMP ISS IBA TAS NAS IEA,IMP IEP,IMP ISS IBA IEA,IEA,IDA TAS,IEA,TAS,IMP IEA,ISS,IEA,ISS IEA,IDA IMP ISS,IEA,IEA,IMP IEA,ISS TAS IEA,IDA IEP ISO IEA,IMP,NAS IEA,IEA,IEA,IDA IMP ISS IEA,IEA,IEP IEA,IDA IMP ISS TAS IEA,ISS IEA,ISS IBA IEA,IEA,IBA TAS IEA,IEA,IEA,ISS IBA IEA,ISS IBA IEA,ISS IEA,IDA ISS TAS IEA,IMP IEA,IMP IBA,IMP ISS IBA IEA,IMP IEA,IMP IBA IEA,IEA,IBA TAS IEA,IDA,IBA,TAS,IBA NAS IEA,IBA IEA,IMP,IDA ISS IBA TAS IEA,IBA TAS,IBA,IEA,IBA IEA,IEA,IMP IBA TAS IEA,ISS NAS IEA,IBA,IMP ISS IBA IEA,IEA,IBA,IMP IEA,IMP ISS IEA,IMP ISS IBA IEA,IMP IEA,IMP ISS IBA IEA,IEA,IBA IEA,IEP ISS IBA IEA,TAS IEA,IDA IMP IBA TAS IEA,IDA IBA,TAS,IBA IEA,IEA,ISS IEA,IEA,IBA,IEA,IEA,NAS,IEP TAS IEA,IEA,IDA IMP IGI IEP IBA,IDA IMP ISS TAS IEA,IEA,IMP ISS IBA IEA,IDA IMP,IEA,IDA IBA,IBA,ISS IEA,IEA,IBA,ISS,ISS IEA,IDA IBA TAS IEA,IMP,IBA TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,90853,23499,59269,5052,3321,10628,10763,4921,5999,1063,4811,5660,54541,84858,3988,26509,9124,83742,6468,977,10553,5080,960,26011,1410,6876,1656,2012,967,4035,4193,490,3146,8660,23224,64093,9369,302,7168,23205,56963,51330,2013,26471,4313,6376,9212,9423,9953,5376,7153,2670,54549,1000,9518,348,79784,151354,91461,3099,114793,1373,2637,10267,1299,3785,140578,116448,5121,1826,80781,1312,10752,2596,5947,8646,347,10460,5156,3490,8404,4889,3148,55714,1767,7204,6507,22836,2201,57717,2246,6678,9232,51299,222698,1026,3910,57224,6196,221833,10457,4852,23089,5054,5764,4747,2185,1191,157570,11075,169044,340371,6194,2934,64855,56262,1641,5358,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell population proliferation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS,TAS IEA,IEA,IMP ISS,ISS TAS IEA,IEA,IDA IEA,IEA,IEA,TAS,IEA,IEA,IEA,IEA,TAS,IMP,IBA,ISS NAS IEA,IMP,IMP,IMP ISS,ISS IBA IEA,IMP IEA,IMP ISS,IEA,IEA,IEA,IEA,TAS IEA,IEA,IDA ISS IEA,IEA,TAS,IMP,IEA,IDA,IBA,IDA IMP IEA,TAS,IEA,IDA ISS IEA,IMP IGI IBA IEA,IDA,IDA IMP IEA,IDA,IDA IEA,IDA TAS,IEA,IDA ISS TAS IEA,IMP TAS IEA,IDA IMP,IMP IEA,IDA,IEA,TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,5052,10628,10763,4921,5328,84858,3988,6468,4288,977,4004,5080,26011,4193,3146,8848,8660,7168,9055,2013,26471,4313,6376,9212,9423,5376,2670,332,1000,348,2637,80781,8646,6480,347,10460,5156,3490,4889,3148,2246,6678,1026,6196,55536,10457,4852,5764,2185,1191,6194,64855,5730,10178</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0048856</t>
@@ -92,13 +146,25 @@
     <t xml:space="preserve">anatomical structure development</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0007275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multicellular organism development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032501, GO:0048856</t>
+    <t xml:space="preserve">ISS IEA,IMP IBA IEA,IDA ISS,IEA,TAS,IMP,IDA,ISS NAS IEA,IMP ISS IEA,IEA,IMP ISS IEA,NAS IEA,IBA,ISS,IEA,IBA IEA,IBA,IBA,NAS IEA,IDA IMP,IDA IEA,IMP ISS IBA TAS NAS IEA,IMP IEP,IMP ISS IBA IEA,IEA,IDA TAS,IEA,TAS,ISS,IEA,ISS IEA,IDA IMP ISS,IEA,IEA,IMP,ISS TAS IEA,IDA IEP ISO IEA,IMP,NAS IEA,IEA,IEA,IDA IMP ISS IEA,IEA,IEP IEA,IDA IMP ISS TAS IEA,ISS,ISS IBA IEA,IEA,IBA TAS IEA,IEA,IEA,ISS IBA IEA,ISS IBA IEA,IEA,IDA ISS TAS IEA,IMP IEA,IMP IBA,IMP ISS IBA IEA,IMP IEA,IMP IBA IEA,IEA,IBA TAS IEA,IDA,IBA,TAS,IBA NAS IEA,IBA IEA,IMP,IDA ISS IBA TAS IEA,IBA TAS,IEA,IBA IEA,IEA,IMP IBA TAS IEA,ISS NAS,IBA,ISS IBA IEA,IEA,IBA,IMP,IMP ISS IEA,IMP ISS IBA IEA,IMP IEA,IMP IBA IEA,IEA,IBA IEA,IEP ISS IBA IEA,TAS IEA,IDA IMP IBA TAS IEA,IDA IBA,IBA IEA,ISS IEA,IEA,IEA,IEA,NAS,IEP TAS,IDA IMP IGI IEP IBA,IDA IMP ISS TAS IEA,IEA,IMP ISS IEA,IDA IMP,IEA,IDA IBA,IBA,ISS IEA,IEA,IBA,ISS,ISS IEA,IDA IBA TAS IEA,IMP,IBA TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,23499,59269,5052,3321,10628,10763,4921,5999,1063,4811,5660,54541,3988,26509,9124,83742,6468,977,10553,5080,960,26011,1410,6876,1656,2012,4035,4193,490,3146,8660,23224,64093,9369,302,7168,23205,56963,51330,2013,26471,4313,6376,9212,9423,9953,5376,7153,2670,54549,1000,9518,348,79784,151354,91461,3099,114793,1373,2637,10267,1299,3785,140578,116448,5121,1826,80781,10752,2596,5947,8646,347,10460,5156,3490,8404,4889,3148,55714,1767,7204,6507,22836,2201,57717,2246,6678,51299,1026,3910,6196,221833,10457,4852,5054,5764,4747,2185,1191,157570,11075,169044,340371,6194,2934,64855,56262,1641,5358,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to wounding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA,IEA,IBA TAS NAS IC IEA,ISS IBA,IDA IMP,IEP,IMP,NAS,NAS IEA,ISS,IEA,IDA,IEA,IEA,IEA,IDA,IBA TAS,ISS,IDA IMP ISS IEA,IEA,IDA IBA,IEA,IDA IMP IGI IBA TAS NAS IC,ISS,IEA,TAS NAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23499,4921,5328,26509,977,5080,960,79026,302,7168,56963,51330,4313,6376,2670,348,2596,347,5156,6507,2246,1026,5054,5764,4747,5327</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0007155</t>
@@ -107,19 +173,52 @@
     <t xml:space="preserve">cell adhesion</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0009987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0008283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell population proliferation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movement of cell or subcellular component</t>
+    <t xml:space="preserve">IDA ISS IBA,IMP,ISS IBA IEA,TAS,NAS IEA,IDA IBA,IEA,NAS,IDA IMP IBA NAS IEA,IBA,IMP,IBA NAS IEA,IDA IMP,TAS IEA,IEA,ISS,TAS,IEA,IDA IBA IEA,IEA,IDA IPI ISS TAS NAS IEA,IEA,ISS IBA IEA,IMP ISS IBA TAS IEA,TAS IEA,ISS IBA TAS IEA,IEA,TAS IEA,IBA IEA,IDA,IEA,IMP,IBA IEA,IMP,IDA IEA,IEA,ISS IBA IEA,IBA NAS IEA,IEA,IDA IMP IBA IEA,IEA,IDA,IMP IBA IEA,IBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23499,2633,57863,4921,4811,5328,9124,977,960,26011,967,5829,3146,9369,302,7168,3671,51330,2013,4313,6376,9423,54549,1000,976,1826,80781,10752,151887,8646,6480,347,5099,5156,3490,8404,55714,57717,3910,10457,4852,5054,2185,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell population proliferation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008283, GO:0050794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS,IEA,ISS,ISS IEA,IEA,IDA,IEA,IEA,IEA,TAS,IMP,IBA,ISS NAS IEA,IMP,IMP,IMP,ISS IBA IEA,IMP IEA,IMP ISS,IEA,IEA,IEA,TAS IEA,IEA,IDA ISS IEA,TAS,IMP,IEA,IDA,IDA IMP IEA,TAS,IEA,IDA ISS IEA,IMP IGI IBA IEA,IDA,IDA IMP IEA,IDA,IDA IEA,IDA TAS,IEA,IDA ISS TAS IEA,IMP TAS IEA,IMP,IMP,IDA,IEA,TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,10628,10763,4921,5328,84858,6468,4004,5080,4193,3146,8848,8660,7168,9055,2013,26471,4313,6376,9423,5376,2670,332,1000,348,80781,8646,6480,347,5156,3490,4889,3148,2246,6678,1026,6196,55536,10457,4852,5764,2185,1191,6194,64855,5730,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008150, GO:0065007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP ISS IBA,IMP IBA TAS NAS IEA,ISS IEA,IDA IMP ISS IBA IEA,IDA IBA,IMP,IEA,TAS IEA,IBA TAS IEA,IMP IGI,IDA ISS IEA,IDA IEA,ISS IBA IEA,IDA IMP ISS IBA TAS IEA,TAS IEA,ISS TAS IEA,IMP ISS IEA,IDA IMP ISS IBA NAS IEA,IDA IBA,NAS IEA,IBA TAS IEA,IMP ISS IBA IEA,IDA IBA TAS NAS IC IEA,IDA IBA,TAS,IGI IBA,IEA,ISS,IEA,ISS IBA,IDA ISS IBA,IDA IMP,IDA IEA,IMP IBA IEA,IDA TAS,IDA IMP ISS IBA IEA,IDA IMP IBA IEA,IMP ISS IBA NAS,IEA,IMP ISS IEA,IDA IMP IBA IEA,IDA IBA IEA,IDA IMP IBA IEA,IMP IGI ISS TAS IC,IDA IMP IBA TAS IEA,IMP ISS TAS IEA,IDA IMP IBA TAS,IDA IMP IGI ISS IBA IEA,IBA IEA,IMP ISS IBA TAS NAS IEA,ISS IEA,IMP,NAS IEA,IEA,IBA,ISS IBA TAS IEA,IMP IBA IEA,IDA,ISS IEA,IDA IMP ISO NAS IEA,IMP ISS TAS,IMP IEA,IDA IMP IEA,IDA IBA IEA,IDA IMP IBA IEA,IDA IMP ISS IBA IEA,IDA IMP ISS IBA IEA,IMP TAS IEA,IDA IMP IGI IEP ISS IBA TAS NAS IEA,IBA,IBA,IBA,IDA IMP ISS IBA TAS NAS IEA,ISS IEA,TAS IEA,IDA IMP ISS IEA,ISS IEA,ISS IBA TAS IEA,IDA IMP IBA TAS NAS IEA,ISS,IBA IEA,IBA IEA,IBA TAS IEA,IDA IMP ISS IBA TAS IEA,IDA IMP IGI ISS IBA TAS IC IEA,IMP IBA,IDA IMP IGI ISS IBA TAS IEA,IDA IBA TAS IC IEA,IEA,IDA,ISS IEA,IDA IBA,IMP IEA,NAS IEA,IBA IEA,IMP IBA IEA,IEA,IBA IEA,IDA IPI IGI IBA IEA,IDA ISS IEA,TAS IEA,IBA IEA,IBA IEA,IMP,IDA ISS IEA,TAS,IDA IMP,TAS IEA,IMP,IEA,IBA IEA,IDA TAS IEA,ISS,IEA,IDA ISS ISO IEA,IDA IMP IBA,IEA,IDA IMP IEA,IMP,ISS IBA IEA,IDA IMP IBA TAS IEA,IBA TAS IEA,IEA,IMP,IMP,IDA ISS IBA TAS IEA,IBA TAS IEA,IDA IMP ISS IBA IEA,ISS IEA,IDA IMP ISS TAS IEA,TAS IEA,IBA IEA,IBA,ISS IEA,IDA,IDA,TAS,IDA IPI IMP IGI IBA NAS IEA,IBA,IDA,IBA,IBA,IBA,IDA IBA,IDA IMP IGI IEP ISS IBA TAS IEA,ISS IEA,IDA TAS NAS IEA,IBA,IDA IEA,IDA IMP IGI TAS NAS IC IEA,ISS IBA TAS IEA,IDA,IDA IMP IGI IBA TAS NAS IC IEA,IDA IMP ISS TAS IEA,IMP IEP IBA TAS NAS IEA,IEA,IDA IMP ISS IBA TAS IEA,IDA IMP IGI ISS IBA TAS IC IEA,IMP,IDA ISS IBA TAS NAS IEA,IEA,IDA IBA IEA,IDA IBA IEA,ISS IEA,IMP ISS IBA IEA,IDA IBA,IDA IMP IEA,IDA ISS IBA TAS NAS IEA,IDA ISS ISO IEA,IMP ISS IBA TAS IEA,IDA IMP IEP ISS,ISS IEA,ISS IEA,IBA TAS IEA,IEA,ISS TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,90853,23499,59269,11004,5052,9077,64123,2633,84722,10628,10763,4921,5999,6004,64710,1063,149111,4811,5660,54541,5328,84858,3988,143282,9124,6319,6468,642938,4288,977,6240,4004,10553,5080,960,79026,1717,26011,1410,1656,967,4035,4193,490,5829,3146,8848,8660,23224,64093,9369,55384,113146,11245,90417,51203,2628,302,7168,9768,9055,56963,51330,2013,26471,4313,6376,794,23406,79007,9212,9423,5376,7153,284119,2670,332,11031,1000,5596,976,9518,348,83987,27113,23645,79784,6432,91461,25927,3099,4175,130574,114793,55854,2637,10267,22974,3785,140578,116448,5121,1826,80781,23467,10752,23171,56992,151887,2596,11343,5947,10051,8646,6480,347,10460,80333,5156,3490,8404,3015,1062,2983,4889,3148,55714,7204,6507,22836,4001,2201,10112,113829,57717,2246,202374,6678,9232,10590,222698,7726,1026,3910,6196,221833,55536,10457,4852,23089,5054,5764,8795,4747,2185,1191,157570,5327,10434,11075,29028,114907,340371,11168,6194,9568,10592,2934,64855,56262,5730,27018,1641,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0065007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biological regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP ISS IBA,IMP IBA TAS NAS IEA,ISS IEA,IDA IMP ISS IBA IEA,IDA IBA,IMP,IEA,TAS IEA,IBA TAS IEA,IMP IGI,IDA ISS IEA,IDA IEA,IDA ISS IBA IEA,IDA IMP ISS IBA TAS IEA,TAS IEA,IDA ISS TAS IEA,IMP ISS IEA,IDA IMP ISS IBA NAS IEA,IDA IBA,NAS IEA,IDA IBA TAS IEA,IMP ISS IBA IEA,IDA IBA TAS NAS IC IEA,IDA IBA,TAS,IDA IGI IBA,IEA,ISS,IEA,ISS IBA,IDA ISS IBA,IDA IMP,IDA IEA,IMP IBA IEA,IDA TAS,IDA IMP ISS IBA IEA,IDA IMP IBA IEA,IMP ISS IBA NAS,IBA IEA,IMP ISS IEA,IDA IMP IBA IEA,IDA IBA IEA,IDA IMP IBA IEA,IMP IGI ISS TAS IC,IDA IMP IBA TAS IEA,IMP ISS TAS IEA,IDA IMP IBA TAS,IDA IMP IGI ISS IBA IEA,IBA IEA,IMP ISS IBA TAS NAS IEA,ISS IEA,IMP,NAS IEA,IEA,IBA,ISS IBA TAS IEA,IMP IBA IEA,IDA,ISS IEA,IDA IMP ISO NAS IEA,IMP ISS TAS,IMP IEA,IDA IMP IEA,IDA IBA IEA,IDA IMP IBA IEA,IDA IMP ISS IBA IEA,IDA IMP ISS IBA IEA,IMP TAS IEA,IDA IMP IGI IEP ISS IBA TAS NAS IEA,IBA,IBA,IBA,IDA IMP ISS IBA TAS NAS IEA,ISS IEA,TAS IEA,IDA IMP ISS IEA,ISS IEA,ISS IBA TAS IEA,IDA IMP IBA TAS NAS IEA,ISS,IBA IEA,TAS,IBA IEA,IBA TAS IEA,IDA IMP ISS IBA TAS IEA,IDA IMP IGI ISS IBA TAS IC IEA,IMP IBA,IDA IMP IGI ISS IBA TAS IEA,IDA IBA TAS IC IEA,IMP IEA,IDA,ISS IEA,IDA IBA,IMP IEA,NAS IEA,IBA IEA,IMP IBA IEA,IDA IEA,IMP,IBA IEA,IDA IPI IGI IBA IEA,IDA ISS IEA,TAS IEA,IBA IEA,IBA IEA,IMP,IDA ISS IEA,TAS,IEA,IDA IMP,TAS IEA,IMP,IEA,IBA IEA,IDA TAS IEA,ISS,IEA,IDA ISS ISO IEA,IDA IMP IBA,IEA,IDA IMP IEA,IMP,ISS IBA IEA,IDA IMP IBA TAS IEA,IBA TAS IEA,IEA,IMP,IMP,IDA ISS IBA TAS IEA,IBA TAS IEA,IDA IMP ISS IBA IEA,ISS IEA,IDA IMP ISS TAS IEA,TAS IEA,IBA IEA,IBA,ISS IEA,IDA,IDA,TAS,IDA IPI IMP IGI IBA NAS IEA,IBA,IDA,IBA,IBA,IBA,IDA IBA,IDA IMP IGI IEP ISS IBA TAS IEA,ISS IEA,IDA TAS NAS IEA,IBA,IDA IEA,IDA IMP IGI TAS NAS IC IEA,ISS IBA TAS IEA,IDA,IDA IMP IGI IBA TAS NAS IC IEA,IDA IMP ISS TAS IEA,IMP IEP IBA TAS NAS IEA,IEA,IDA IMP ISS IBA TAS IEA,IDA IMP IGI ISS IBA TAS IC IEA,IMP,IDA ISS IBA TAS NAS IEA,IEA,IDA IBA IEA,IDA IBA IEA,ISS IEA,IMP ISS IBA IEA,IDA IBA,IDA IMP IEA,IDA ISS IBA TAS NAS IEA,IDA ISS ISO IEA,IMP ISS IBA TAS IEA,IDA IMP IEP ISS,IDA IMP ISS IEA,ISS IEA,IBA TAS IEA,IEA,ISS TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,90853,23499,59269,11004,5052,9077,64123,2633,84722,10628,10763,4921,5999,6004,64710,1063,149111,4811,5660,54541,5328,84858,3988,143282,9124,6319,6468,642938,4288,977,6240,4004,10553,5080,960,79026,1717,26011,1410,1656,967,4035,4193,490,5829,3146,8848,8660,23224,64093,9369,55384,113146,11245,90417,51203,2628,302,7168,9768,9055,56963,51330,2013,26471,4313,6376,794,23406,79007,9212,9423,5376,7153,284119,2670,332,11031,1000,4645,5596,976,9518,348,83987,27113,23645,79784,6432,91461,25927,3099,4175,130574,114793,55854,1373,2637,10267,22974,3785,140578,116448,5121,1826,80781,1312,23467,10752,23171,56992,151887,2596,11343,5947,10051,8646,6480,347,10460,80333,5156,3490,8404,3015,1062,2983,4889,3148,55714,7204,6507,22836,4001,2201,10112,113829,57717,2246,202374,6678,9232,10590,222698,7726,1026,3910,6196,221833,55536,10457,4852,23089,5054,5764,8795,4747,2185,1191,157570,5327,10434,11075,29028,114907,340371,11168,6194,9568,10592,2934,64855,56262,5730,27018,1641,10178</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0048869</t>
@@ -131,28 +230,130 @@
     <t xml:space="preserve">GO:0009987, GO:0032502</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0040011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0042127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cell population proliferation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0008283, GO:0050794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to wounding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006950</t>
+    <t xml:space="preserve">ISS IEA,IBA IEA,IEA,IDA ISS,IEA,IDA,IEA,IMP,IEA,IEA,NAS,IBA,ISS,IDA IEA,IBA IEA,IEA,IMP ISS NAS IEA,IMP,IMP ISS IBA IEA,IDA,IEA,IMP IEA,ISS,IEA,IDA IMP ISS,IEA,IMP IEA,TAS,IDA ISO IEA,IMP,IEA,IEA,IDA ISS IEA,IEA,IEP IEA,IDA IMP ISS TAS,ISS IBA IEA,IBA IEA,IEA,IEA,ISS IEA,ISS IBA IEA,IEA,IDA ISS TAS IEA,IMP,ISS IEA,IEA,IEA,IBA IEA,IBA IEA,IMP,IDA ISS IBA IEA,IBA,IEA,IBA IEA,IEA,IMP,ISS,IMP ISS IEA,IMP ISS IEA,ISS IBA IEA,IMP ISS IBA IEA,IEA,ISS IEA,IBA IEA,IBA,IEA,IEA,IBA,IEA,IEP TAS,IEA,IDA,IDA IMP ISS IEA,IEA,IMP ISS IBA IEA,IDA IMP,IEA,IDA IBA,IBA,ISS IEA,IEA,ISS,ISS IEA,IDA IBA IEA,IBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,90853,23499,59269,10628,10763,4921,5999,1063,4811,5660,54541,84858,26509,10553,5080,960,26011,6876,1656,967,4035,4193,3146,23224,64093,9369,302,7168,56963,51330,2013,26471,4313,6376,9423,5376,7153,2670,54549,1000,9518,348,79784,91461,1373,2637,140578,116448,5121,1826,80781,10752,2596,5947,8646,347,5156,3148,55714,7204,6507,2201,2246,51299,222698,3910,57224,6196,4852,23089,5054,5764,4747,2185,1191,157570,11075,169044,340371,6194,64855,56262,1641,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytoskeleton organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA IMP IBA IEA,IBA IEA,IDA IMP TAS,IDA ISS IEA,ISS IBA,IEA,ISS IBA IEA,IEA,IEA,ISS,IMP,IEA,IMP IBA IEA,IDA IBA IEA,IMP ISS IBA TAS,IMP,IBA TAS IEA,TAS IEA,IDA,IGI,IBA,IMP IBA TAS NAS,IDA IBA IEA,NAS IEA,IMP IBA IEA,IBA,TAS,IMP IBA,IDA,IMP IBA IEA,IDA ISS IBA IEA,IEA,IMP IBA IEA,ISS TAS IEA,IMP,IMP IBA,IBA,IEA,IDA,IBA TAS IEA,IDA IMP IBA IEA,IMP ISS IEA,IDA IBA IEA,IDA IMP IGI ISS IBA TAS IEA,IBA IEA,IBA IEA,ISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,23499,11004,84722,10763,5999,9124,5080,1410,4035,5829,23224,90417,51203,7168,9768,9055,23336,2013,6376,23406,9212,2670,332,115106,4645,348,83987,79784,114793,22974,56992,10460,5156,1062,1767,22836,4001,10112,4741,4747,2185,11075,2934,1641,5358,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009987, GO:0050789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP ISS IBA,IMP IBA TAS NAS IEA,ISS,IDA IMP ISS IBA IEA,IDA IBA,IMP,IEA,TAS IEA,IBA TAS IEA,IMP IGI,IDA ISS IEA,IDA IEA,ISS IBA IEA,IDA IMP ISS IBA TAS IEA,TAS IEA,ISS TAS IEA,IMP ISS IEA,IDA IMP IBA NAS,IDA IBA,NAS IEA,IBA TAS IEA,IMP ISS IBA IEA,IDA IBA TAS NAS IEA,IDA IBA,IGI,IEA,IEA,ISS IBA,IDA ISS IBA,IDA IMP,IDA IEA,IMP IBA IEA,IDA TAS,IDA IMP ISS IBA IEA,IDA IMP IBA IEA,IMP ISS IBA NAS,IMP ISS IEA,IDA IMP IBA IEA,IDA IBA IEA,IDA IMP IBA IEA,IGI ISS TAS,IDA IMP IBA TAS IEA,IMP,IDA IMP IBA TAS,IDA IMP IGI ISS IBA IEA,IBA IEA,IMP ISS IBA TAS NAS IEA,ISS IEA,IMP,NAS IEA,IEA,IBA,ISS IBA TAS IEA,IMP IBA IEA,IDA,IDA IMP ISO NAS IEA,IMP ISS,IMP IEA,IDA IMP IEA,IDA IBA IEA,IDA IMP IBA IEA,IDA IMP ISS IBA IEA,IDA IMP ISS IBA IEA,IMP TAS IEA,IDA IMP IGI ISS IBA TAS NAS IEA,IBA,IBA,IBA,IDA IMP ISS IBA TAS NAS IEA,ISS IEA,IEA,IDA IMP IEA,ISS IEA,ISS IBA TAS IEA,IDA IMP IBA TAS NAS IEA,ISS,IBA IEA,IBA IEA,IBA TAS IEA,IDA IMP ISS IBA TAS IEA,IDA IMP IGI ISS IBA TAS IEA,IMP IBA,IDA IMP IGI ISS IBA TAS IEA,IDA IBA TAS IC IEA,IDA,ISS IEA,IDA IBA,IEA,NAS IEA,IBA IEA,IEA,IBA IEA,IDA IPI IGI IBA IEA,IDA ISS IEA,IEA,IBA IEA,IBA IEA,IMP,IDA ISS IEA,TAS,IDA IMP,TAS IEA,IMP,IEA,IBA IEA,IDA TAS IEA,ISS,IEA,IDA ISS ISO IEA,IDA IMP IBA,IEA,IDA IMP IEA,IMP,ISS IBA IEA,IDA IMP IBA TAS IEA,IBA TAS IEA,IEA,IMP,IMP,IDA ISS IBA TAS IEA,IBA TAS IEA,IDA IMP ISS IBA IEA,ISS IEA,IDA IMP ISS TAS IEA,IEA,IBA IEA,ISS IEA,IDA,IDA,IDA IPI IMP IGI IBA NAS IEA,IBA,IDA,IBA,IBA,IDA IBA,IDA IMP IGI IEP ISS IBA TAS IEA,IEA,IDA TAS NAS IEA,IBA,IDA IEA,IDA IMP IGI TAS IC IEA,IBA TAS IEA,IDA,IDA IMP,IDA IMP ISS TAS IEA,IMP IEP IBA TAS NAS IEA,IEA,IDA IMP ISS IBA TAS IEA,IDA IMP IGI ISS IBA TAS IC IEA,IMP,IBA IEA,IEA,IDA IBA IEA,IDA IBA IEA,IMP ISS IBA IEA,IDA IBA,IDA IMP IEA,IDA TAS IEA,IDA ISS ISO IEA,IMP ISS IBA TAS IEA,IDA IMP ISS,ISS IEA,IEA,IBA IEA,IEA,ISS TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,90853,23499,59269,11004,5052,9077,64123,2633,84722,10628,10763,4921,5999,6004,64710,1063,149111,4811,5660,54541,5328,84858,143282,9124,6468,642938,4288,977,6240,4004,10553,5080,960,79026,26011,1410,1656,967,4035,4193,490,5829,3146,8848,8660,23224,64093,9369,55384,113146,11245,90417,51203,302,7168,9768,9055,56963,51330,2013,26471,4313,6376,794,23406,79007,9212,9423,5376,7153,284119,2670,332,11031,1000,5596,976,9518,348,83987,27113,23645,6432,91461,25927,3099,4175,130574,55854,2637,10267,22974,3785,140578,116448,5121,1826,80781,23467,10752,23171,56992,151887,2596,11343,5947,10051,8646,6480,347,10460,80333,5156,3490,8404,3015,1062,2983,4889,3148,55714,7204,6507,22836,2201,10112,113829,2246,202374,6678,9232,10590,7726,1026,3910,6196,221833,55536,10457,4852,23089,5054,5764,8795,4747,2185,1191,157570,5327,10434,11075,29028,340371,11168,6194,9568,10592,2934,64855,56262,5730,27018,1641,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032502, GO:0048856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA,IDA ISS,IEA,IEA,IEA,NAS IEA,IDA IMP,IDA IEA,IMP TAS IEA,IMP,IMP ISS IEA,IEA,ISS,IEA,ISS TAS IEA,IEP IEA,IMP,IEA,IEA,IDA IMP ISS IEA,IEP IEA,IEA,ISS IBA IEA,IEA,IBA,ISS IBA IEA,IBA IEA,IEA,TAS IEA,IMP IEA,IMP IBA,IEA,IMP,IMP IBA IEA,IEA,IDA,IBA,IDA ISS IBA IEA,IBA TAS,IEA,IBA IEA,NAS,ISS IBA IEA,IMP,IMP,IMP IBA IEA,IEA,IBA,IEP ISS IBA IEA,IDA IMP IBA TAS IEA,IDA,IBA,IEA,NAS,IDA IMP IGI IEP IBA,ISS IEA,IEA,IMP ISS IEA,IDA,IBA,IEA,ISS,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,23499,10763,3988,26509,6468,977,10553,5080,960,26011,1410,4035,4193,9369,302,7168,56963,51330,2013,4313,6376,9423,9953,5376,54549,1000,9518,348,79784,151354,91461,3099,114793,2637,10267,140578,1826,80781,10752,2596,347,5156,4889,55714,7204,6507,22836,2201,2246,6678,51299,221833,10457,5054,5764,4747,2185,1191,169044,6194,64855,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA,ISS,IMP IEP TAS NAS,ISS IBA IEA,IBA TAS IEA,TAS IEA,IBA TAS IEA,IDA IMP IEP IBA IEA,IDA IEA,IEA,IDA IBA TAS IEA,TAS IEA,ISS TAS IEA,IMP ISS IBA IEA,NAS,IDA IBA,NAS,IEP IBA IEA,IBA IEA,IDA IMP ISS IBA IEA,IDA IBA TAS NAS IC IEA,IEA,IGI,ISS IBA,TAS IEA,IBA,IEA,ISS IBA,IDA IMP,IDA NAS,IEP IEA,IDA IMP IBA IEA,NAS,IEA,IMP IBA IEA,IMP IBA IEA,ISS,IDA IMP IEP TAS,IMP IEA,IDA IEP IBA TAS,IDA IMP IEP ISS IEA,IMP ISS IBA TAS IEA,TAS NAS,ISS IBA TAS IEA,IMP,IMP,NAS IEA,IEP ISS,IDA IMP IBA IEA,IEA,IBA IEA,IDA IMP IBA,IDA ISS IBA IEA,IMP ISS IEA,IDA ISS IBA TAS IEA,IDA IMP IGI IEP ISS IBA TAS IEA,IEA,IDA ISS TAS NAS IEA,ISS IBA IEA,IDA,IEA,NAS IEA,IMP,TAS IEA,IBA IEA,IBA TAS IEA,IDA IMP ISS IBA TAS IEA,IDA IMP IGI TAS NAS IC IEA,IDA IMP IGI IEP ISS IBA TAS IEA,IDA IBA TAS IC,IEA,IDA IBA,IMP IEA,IBA,IBA IEA,IEA,IDA IMP IEA,IEA,IDA IPI IGI IBA IEA,IMP,IDA ISS IBA IEA,IEA,IDA IMP,TAS IEA,IMP,IEA,IBA TAS IEA,ISS TAS,IEA,IMP IBA,TAS IEA,IDA ISS IBA IEA,IDA IMP ISS IBA TAS IEA,IBA IEA,IEA,IMP,IDA ISS IBA TAS IEA,IBA TAS IEA,IDA IEP ISS IEA,IEA,IBA TAS IEA,IEA,IEA,ISS IEA,IDA,IDA IPI IMP IGI IBA NAS IEA,IBA,IEA,IDA IBA IEA,IDA IMP IEP ISS IBA TAS IEA,TAS NAS IEA,IMP NAS IC IEA,ISS IBA TAS IEA,IDA,IDA IMP IGI IBA TAS NAS IC,IDA ISS TAS IEA,IDA IMP IEP IBA TAS NAS IEA,IEA,IMP ISS IBA TAS IEA,IDA IMP IEP TAS IC IEA,IEA,IBA TAS NAS IEA,IDA,ISS IEA,IBA,ISS IEA,IDA IEA,IDA TAS IEA,IMP ISS IEA,ISS,IMP IEA,IEA,IBA IEA,IEA,ISS TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856,26038,3925,23499,5052,9077,64123,2633,10628,140576,4921,5999,6004,64710,1063,149111,4811,22944,5660,54541,5328,3988,143282,26509,9124,6319,6468,642938,977,6240,5080,960,79026,26011,1410,967,4035,4193,490,5829,3146,8660,9369,11245,90417,2628,302,7168,9768,23205,56963,51330,2013,26471,4313,6376,23406,9212,9423,7153,2670,332,11031,1000,5596,976,9518,348,27113,23645,6432,25927,3099,4175,130574,55854,1373,2637,10267,5121,1826,1312,23467,10752,23171,151887,2596,11343,5947,8646,6480,347,5156,3490,8404,3015,2983,4889,3148,55714,7204,6507,22836,2201,113829,2246,202374,9232,7726,1026,6196,10457,4852,23089,5054,5764,8795,4747,2185,1191,157570,5327,11075,114907,340371,11168,6194,9568,2934,64855,56262,5730,27018,1641,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IBA IEA,IEA,IDA ISS,IEA,IDA,IMP,IEA,IEA,NAS,IBA,ISS,IDA IEA,IBA IEA,IEA,IMP ISS NAS IEA,IMP ISS IBA IEA,IDA,IEA,IMP IEA,ISS,IEA,IDA IMP ISS,IEA,IMP IEA,TAS,IDA ISO IEA,IMP,IEA,IEA,IDA ISS IEA,IEA,IEP IEA,IDA IMP ISS TAS,ISS IBA IEA,IEA,IEA,IEA,ISS IEA,ISS IBA IEA,IEA,IDA ISS TAS IEA,ISS IEA,IEA,IEA,IBA IEA,IBA IEA,IMP,IDA ISS IBA IEA,IBA,IEA,IBA IEA,IEA,IMP,ISS,IMP ISS IEA,IMP ISS IEA,ISS IBA IEA,IMP ISS IBA IEA,IEA,ISS IEA,IBA IEA,IBA,IEA,IEA,IBA,IEA,IEP TAS,IEA,IDA,IDA IMP ISS IEA,IEA,IMP ISS IBA IEA,IDA IMP,IEA,IDA IBA,IBA,ISS IEA,IEA,ISS,ISS IEA,IDA IBA IEA,IBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,90853,23499,59269,10628,4921,5999,1063,4811,5660,54541,84858,26509,10553,5080,26011,6876,1656,967,4035,4193,3146,23224,64093,9369,302,7168,56963,51330,2013,26471,4313,6376,9423,5376,7153,2670,54549,1000,9518,348,91461,1373,2637,140578,116448,5121,1826,80781,10752,2596,5947,8646,347,5156,3148,55714,7204,6507,2201,2246,51299,222698,3910,57224,6196,4852,23089,5054,5764,4747,2185,1191,157570,11075,169044,340371,6194,64855,56262,1641,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular component organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0016043, GO:0050794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP IBA IEA,IDA ISS IBA,IDA ISS IEA,ISS IBA,ISS TAS IEA,IEA,NAS,NAS,IDA ISS IBA,IDA IMP,IMP,NAS,IDA IEA,IMP,IGI ISS TAS,IMP,IDA,IEA,IEA,IDA,IDA IMP NAS IEA,ISS,IEA,IMP,IGI ISS,IBA,IDA IMP NAS IEA,ISS IEA,IEA,IMP,TAS IEA,NAS,ISS,IBA IEA,IEA,IDA ISS TAS IEA,IMP IBA,IDA IGI IBA IEA,IDA TAS,IDA ISS IEA,IBA IEA,IDA IEA,IEA,IDA IEA,IDA ISS,IMP,IMP,TAS,IEA,IMP,ISS,IBA,IBA,IDA,IEA,IDA,ISS IEA,IEA,IMP ISS IEA,IDA IMP IGI ISS TAS IEA,IDA IBA IEA,IDA ISS,IMP ISS IBA TAS IEA,ISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,23499,84722,10763,4921,5999,1063,4811,4288,977,960,79026,1410,967,4035,5829,3146,23224,55384,51203,302,7168,56963,26471,6376,23406,9212,9423,5376,7153,2670,332,11031,1000,9518,348,83987,27113,23645,22974,140578,1826,56992,2596,10051,347,10460,5156,3490,1062,55714,22836,9232,1026,6196,5054,5764,4747,2185,1191,11075,10592,2934,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal organ development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS,IMP,IEA,IMP,IDA,ISS,IMP ISS IEA,IEA,IMP ISS IEA,IEA,IBA,ISS,IEA,IBA,IEA,IMP ISS TAS IEA,IEP,IEA,IEA,TAS,IEA,ISS IEA,IEA,IEA,IMP,IDA,IMP,IEA,ISS IEA,IEA,IEA,IBA IEA,IEA,ISS IBA IEA,ISS IBA IEA,IMP,ISS IEA,IEA,IEA,IEA,IBA,NAS,ISS IEA,TAS,IMP IEA,ISS,IBA,ISS IBA IEA,IMP,IEA,IMP,IEA,IEA,IEP ISS IEA,IDA IBA IEA,ISS IEA,IEA,IEP,IDA,ISS IEA,IEA,ISS IEA,IEA,ISS,IBA IEA,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,59269,3321,10628,10763,4921,5999,1063,4811,5660,54541,3988,9124,6468,5080,960,26011,1410,6876,4193,490,8660,23224,64093,302,7168,23205,2013,26471,4313,9423,9953,54549,1000,79784,91461,3099,1373,2637,1299,140578,1826,80781,8646,347,10460,5156,4889,3148,55714,1767,22836,2201,2246,1026,6196,4852,5054,5764,4747,2185,6194,64855,1641,5358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0001568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood vessel development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0001944, GO:0048856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA IEA,IMP,ISS,IEA,ISS IEA,IEP IEA,IEA,IDA IMP ISS IEA,IEA,IEA,IBA IEA,IEA,IMP,IEA,IDA,IBA,NAS,ISS IEA,IDA IMP IEA,IDA,IEA,NAS,IMP IGI IEP IBA,ISS IEA,IBA,ISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10553,5080,4035,4193,9369,302,51330,2013,4313,6376,1000,348,3099,2637,10267,80781,347,5156,2246,6678,3910,10457,5054,2185,169044,64855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0001944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vasculature development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048731, GO:0072359</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0016043</t>
@@ -164,115 +365,10 @@
     <t xml:space="preserve">GO:0071840</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0050789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of biological process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0008150, GO:0065007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytoskeleton organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anatomical structure morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032502, GO:0048856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0065007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biological regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular component organization or biogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cellular component organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0016043, GO:0050794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to stimulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0016477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0048870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cellular process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009987, GO:0050789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0048513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal organ development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0000902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localization of cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009987, GO:0051179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell motility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006928, GO:0040011, GO:0051674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0001568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood vessel development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0001944, GO:0048856</t>
+    <t xml:space="preserve">IEA,ISS IBA IEA,IDA IMP IBA IEA,IDA ISS IBA IEA,IDA IMP TAS,TAS,IEA,IDA ISS IBA IEA,ISS IBA IEA,ISS TAS IEA,IEA,ISS IEA,NAS,TAS NAS IEA,IEA,ISS IBA,ISS IBA IEA,IDA ISS IBA,IDA IMP,IMP IEA,IEA,IMP,NAS,IMP ISS IEA,IDA IEA,IDA IMP IBA IEA,IDA,IMP,IGI ISS TAS,IDA IMP IEA,IMP TAS,IDA IGI ISS,IEA,IBA,TAS IEA,IEA,IMP IBA IEA,IDA IBA IEA,IDA IMP NAS IEA,IMP ISS IBA TAS,IMP,IBA TAS IEA,IEA,TAS IEA,IDA ISS IEA,IMP IEA,IBA TAS IEA,IMP IGI ISS TAS,IBA,IDA IMP IBA TAS NAS IEA,ISS IBA IEA,IDA IBA IEA,IDA IMP IBA IEA,IDA IBA TAS IEA,ISS IBA IEA,NAS IEA,IMP IBA IEA,IMP ISS,ISS IBA IEA,IMP IBA IEA,IBA,IEA,IDA IMP IGI ISS TAS IEA,IMP IBA,IDA IGI IBA IEA,IDA TAS,IDA IMP,IDA IMP IEA,IDA IBA IEA,IMP IBA IEA,IEA,IDA ISS IBA IEA,IBA,IBA IEA,IDA ISS IBA IEA,IBA,IEA,IEA,IBA IEA,IDA IBA IEA,IDA ISS IBA TAS IEA,IMP ISS,IMP IBA IEA,ISS TAS IEA,IEA,IEA,IDA IMP TAS,ISS NAS IEA,ISS,IMP IBA,IMP IBA IEA,IBA,IMP IBA IEA,IDA IMP,TAS,IBA IEA,IBA,IDA,IEA,IEP,ISS,IDA,ISS IEA,IBA TAS IEA,IDA IMP IBA IEA,IMP ISS TAS IEA,IDA IMP IGI ISS TAS IC IEA,IBA,IEA,IDA IBA IEA,IEA,IEA,IBA,IDA,IDA ISS IBA TAS IEA,IDA IMP IGI ISS IBA TAS IEA,ISS,IDA IMP ISS IEA,IBA IEA,IBA IEA,ISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856,26038,3925,23499,11004,9077,64123,84722,10763,4921,5999,64710,1063,4811,54541,26509,9124,4288,977,6240,5080,960,79026,26011,1410,1656,2012,967,4035,4193,5829,3146,23224,64093,9369,55384,90417,51203,302,7168,9768,9055,56963,23336,2013,26471,4313,6376,23406,9212,9423,5376,7153,2670,54549,332,284184,11031,1000,115106,4645,9518,348,83987,27113,23645,79784,3099,4175,114793,2637,22974,1299,140578,1826,80781,10752,56992,151887,2596,10051,347,10460,5156,3490,8404,1062,3148,55714,1767,7204,22836,4001,10112,57717,9232,51299,1026,6196,4852,23089,5054,5764,4741,4747,2185,1191,157570,5327,11075,5375,29028,169044,11168,10592,2934,64855,56262,1641,5358,10178</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0072359</t>
@@ -281,6 +377,51 @@
     <t xml:space="preserve">circulatory system development</t>
   </si>
   <si>
+    <t xml:space="preserve">IEA,IBA,IDA IEA,IMP,IEA,ISS,IEA,ISS IEA,IEP IEA,IMP,IEA,IDA IMP ISS IEA,IEA,IEA,IBA IEA,IEA,IMP,IEA,IDA,IBA,NAS,ISS IEA,IMP,IEA,IDA IMP IEA,IDA,ISS IEA,IEA,IEA,NAS,IMP IGI IEP IBA,ISS IEA,IBA,ISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5999,9124,10553,5080,26011,4035,4193,9369,302,7168,51330,2013,4313,6376,1000,348,3099,2637,10267,80781,347,5156,4889,1767,2246,6678,1026,3910,6196,10457,5054,2185,169044,64855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS,IMP TAS NAS,ISS IEA,IEA,TAS IEA,IBA TAS IEA,IMP,IEA,IDA IBA TAS IEA,TAS IEA,ISS TAS IEA,ISS IEA,NAS,IDA IBA,NAS,IBA IEA,IMP ISS IBA IEA,IDA TAS NAS,IGI IBA,IEA,ISS IBA,IEA,IDA IBA IEA,IEA,IEA,IMP IBA IEA,ISS,IDA IMP TAS,IEA,IDA IBA TAS,IDA ISS IEA,ISS IBA TAS IEA,NAS IEA,ISS IBA TAS IEA,IBA IEA,IMP IBA,IDA IBA IEA,IMP ISS IEA,TAS,IDA IGI ISS IBA TAS IEA,IBA,ISS TAS NAS IEA,ISS,TAS,IEA,NAS IEA,IBA IEA,IBA IEA,IBA TAS IEA,IDA IMP ISS IBA TAS IEA,IDA IMP IGI TAS,IDA IMP IGI ISS IBA TAS IEA,TAS,IMP,IDA IBA,IBA IEA,IEA,IDA IPI IGI IBA IEA,TAS,IMP,IEA,IEA,IDA IMP,TAS,IMP,TAS,ISS,IMP IBA,IDA,IDA IMP IBA TAS IEA,IBA,IEA,IDA ISS IBA TAS IEA,IBA TAS IEA,IEA,IEA,IDA IMP TAS IEA,TAS IEA,IEA,ISS IEA,TAS,IDA IPI IMP IGI IBA NAS IEA,IBA,IBA,IDA IMP IEP TAS IEA,TAS NAS IEA,IMP IC IEA,IBA TAS IEA,IDA,IDA IMP,IDA ISS TAS IEA,IMP IEP IBA TAS NAS IEA,IEA,IMP ISS IBA TAS IEA,IMP TAS IC,IBA IEA,IBA,IDA,IDA ISS IBA TAS NAS IEA,IMP IEP ISS,ISS IEA,IBA IEA,IEA,ISS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,23499,5052,9077,64123,2633,10628,4921,5999,6004,64710,1063,149111,4811,5660,54541,5328,143282,6468,642938,5080,960,26011,1410,967,4035,4193,490,5829,3146,8660,9369,11245,56963,51330,2013,26471,4313,6376,794,9212,9423,5376,2670,332,1000,5596,976,9518,348,27113,23645,79784,25927,130574,55854,10267,3785,5121,1826,1312,23467,10752,23171,2596,11343,8646,347,5156,3490,8404,2983,4889,3148,55714,7204,6507,22836,2201,57717,2246,202374,10590,1026,6196,10457,4852,23089,5054,5764,8795,4747,2185,1191,5327,340371,6194,9568,64855,56262,27018,1641,10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood vessel morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0001568, GO:0035239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA IEA,ISS,ISS IEA,IEP IEA,IEA,IDA IMP ISS IEA,IEA,IEA,IBA IEA,IEA,IMP,IEA,IDA,IBA,NAS,ISS IEA,IDA IMP IEA,IDA,NAS,IMP IGI IEP IBA,ISS IEA,IBA,ISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10553,4035,9369,302,51330,2013,4313,6376,1000,348,3099,2637,10267,80781,347,5156,2246,6678,10457,5054,2185,169044,64855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0023052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS,IMP TAS NAS,ISS IEA,IEA,TAS IEA,IBA TAS IEA,IMP,IEA,IDA IBA TAS IEA,TAS IEA,ISS TAS IEA,ISS IEA,NAS,IDA IBA,NAS,IBA IEA,IMP ISS IBA IEA,IDA TAS NAS,IGI IBA,IEA,ISS IBA,IEA,IDA IBA IEA,IEA,IEA,IMP IBA IEA,ISS,IDA IMP TAS,IDA IBA TAS,IDA ISS IEA,ISS IBA TAS IEA,NAS IEA,ISS IBA TAS IEA,IDA IEA,IBA IEA,IMP IBA,IDA IBA IEA,IMP ISS IEA,TAS,IDA IGI ISS IBA TAS IEA,IBA,ISS TAS NAS IEA,ISS,TAS,IEA,NAS IEA,IBA IEA,IBA IEA,IBA TAS IEA,IDA IMP ISS IBA TAS IEA,IDA IMP IGI TAS,IDA IMP IGI ISS IBA TAS IEA,TAS,IDA IBA,IBA IEA,IEA,IDA IPI IGI IBA IEA,TAS,IMP,IEA,IDA IMP,TAS,IMP,TAS,ISS,IMP IBA,IDA,IDA IMP IBA TAS IEA,IBA,IEA,IDA ISS IBA TAS IEA,IBA TAS IEA,IEA,IEA,IDA IMP TAS IEA,TAS IEA,IEA,ISS IEA,TAS,IDA IPI IMP IGI IBA NAS IEA,IBA,IBA,IDA IMP IEP TAS IEA,TAS NAS IEA,IMP IC IEA,IBA TAS IEA,IDA,IDA IMP,IDA ISS TAS IEA,IMP IEP IBA TAS NAS IEA,IEA,IMP ISS IBA TAS IEA,IMP TAS IC,IBA IEA,IBA,IDA,IDA ISS IBA TAS NAS IEA,IMP IEP ISS,ISS IEA,IBA IEA,IEA,ISS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038,3925,23499,5052,9077,64123,2633,10628,4921,5999,6004,64710,1063,149111,4811,5660,54541,5328,143282,6468,642938,5080,960,26011,1410,967,4035,4193,5829,3146,8660,9369,11245,302,56963,51330,2013,26471,4313,6376,794,9212,9423,5376,2670,332,1000,5596,976,9518,348,27113,23645,25927,130574,55854,10267,3785,5121,1826,23467,10752,23171,2596,11343,8646,347,5156,3490,8404,2983,4889,3148,55714,7204,6507,22836,2201,57717,2246,202374,10590,1026,6196,10457,4852,23089,5054,5764,8795,4747,2185,1191,5327,340371,6194,9568,64855,56262,27018,1641,10178</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0071944</t>
   </si>
   <si>
@@ -293,6 +434,12 @@
     <t xml:space="preserve">GO:0110165</t>
   </si>
   <si>
+    <t xml:space="preserve">HDA IEA,IDA IEA,IBA IEA,ISS IBA IEA,IEA,IDA,IBA TAS IEA,IDA IBA TAS IEA,TAS IEA,TAS,ISS IEA,IDA HDA ISS IBA NAS IEA,HDA TAS,TAS,HDA,IDA ISS IBA TAS IEA,IEA,IDA IBA TAS NAS,IDA IBA TAS NAS IEA,IDA IPI NAS,IDA IEA,IEA,IDA IBA,IDA IBA TAS IEA,IDA ISS IBA TAS IEA,TAS,IDA ISS IBA TAS IEA,IDA ISS IBA TAS IEA,IDA IEA,IBA TAS IEA,IDA IEA,IBA IEA,TAS,IDA NAS,ISS IBA TAS IEA,IDA,IDA IPI HDA ISS IBA IEA,IDA,IDA IEA,IDA,IBA IEA,IBA IEA,IBA TAS IEA,IDA ISS IBA IEA,HDA IEA,TAS IEA,IBA,IBA IEA,TAS IEA,IDA IBA TAS IEA,IDA IBA IEA,TAS IEA,ISS TAS,IDA HDA ISS IBA TAS IEA,IDA,IBA TAS IEA,HDA,IDA HDA TAS,IDA,IDA IBA,IEA,IEA,IDA TAS,HDA IBA,IDA ISS IBA TAS IEA,ISS IBA TAS IEA,HDA IBA TAS IEA,TAS IEA,IEA,IDA,IBA IEA,IDA IBA TAS IEA,TAS,IDA ISS IBA TAS IEA,IDA IBA TAS IEA,IDA IBA TAS IEA,HDA,IEA,IEA,IBA TAS IEA,ISS IEA,IMP ISS IBA TAS IEA,IBA,IDA HDA IBA TAS IEA,TAS,IBA IEA,IEA,IEA,HDA TAS IEA,IBA TAS IEA,IDA HDA ISS TAS IEA,IBA TAS IEA,IDA HDA TAS NAS,IEA,IBA TAS,ISS IBA IEA,IDA HDA,IDA IEA,IBA,IDA IPI IBA TAS IEA,IDA,IDA,IDA ISS TAS IEA,IDA,ISS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856,23499,9077,64123,2633,140576,57863,4921,5999,6004,149111,4811,5660,5328,143282,26509,83742,977,960,79026,26011,1410,2012,967,4035,4193,490,5829,3146,8660,23224,64093,9369,113146,11245,90417,302,7168,23205,9055,56963,23336,51330,2013,4313,6376,23406,9423,9953,5376,284119,54549,11031,1000,4645,976,9518,348,83987,25927,3099,130574,10267,1299,3785,1826,80781,1312,10752,23171,151887,2596,11343,80333,5099,5156,3490,8404,2983,4889,55714,6507,22836,2201,84418,57717,2246,202374,6678,51299,3910,10457,5054,5764,8795,2185,1191,10434,169044,9568,2934,64855,56262,5358,10178</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0062023</t>
   </si>
   <si>
@@ -302,6 +449,12 @@
     <t xml:space="preserve">GO:0031012</t>
   </si>
   <si>
+    <t xml:space="preserve">HDA IEA,IDA HDA ISS NAS IEA,HDA,HDA,IDA,IBA IEA,HDA ISS IEA,HDA,IBA IEA,HDA,HDA,HDA,HDA IBA,HDA TAS IEA,IBA IEA,HDA,IEA,HDA IEA,HDA IEA,IDA HDA ISS TAS IEA,IDA HDA NAS,HDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856,4811,5660,143282,977,64093,302,4313,9423,1000,9518,348,1299,80781,151887,3490,8404,2201,6678,3910,5054,1191</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0030312</t>
   </si>
   <si>
@@ -311,6 +464,12 @@
     <t xml:space="preserve">GO:0071944, GO:0110165</t>
   </si>
   <si>
+    <t xml:space="preserve">HDA IEA,IDA HDA ISS NAS IEA,HDA,HDA,IDA,IBA IEA,HDA ISS IEA,HDA IEA,IBA IEA,HDA,HDA,IDA HDA,HDA IBA,HDA IBA TAS IEA,IBA IEA,HDA,IEA,IDA HDA IBA TAS IEA,IEA,HDA IEA,IDA HDA ISS TAS IEA,IDA HDA NAS,HDA,IBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856,4811,5660,143282,977,64093,302,4313,9423,1000,9518,348,1299,80781,151887,3490,8404,2201,2246,6678,3910,5054,1191,169044</t>
+  </si>
+  <si>
     <t xml:space="preserve">extracellular matrix</t>
   </si>
   <si>
@@ -320,12 +479,24 @@
     <t xml:space="preserve">extracellular region</t>
   </si>
   <si>
+    <t xml:space="preserve">HDA IEA,HDA,HDA,IEA,IDA HDA IBA,HDA TAS IEA,IDA HDA ISS IBA TAS IEA,IDA HDA IBA TAS IEA,IDA IEA,HDA,HDA,HDA,IDA HDA,HDA IEA,HDA IEA,IDA HDA IEA,HDA,IDA ISS TAS IEA,HDA,IBA IEA,HDA,IDA HDA IBA TAS IEA,HDA TAS IEA,IDA HDA TAS IEA,IDA IMP ISS IBA TAS IEA,HDA TAS,IDA TAS IEA,HDA,HDA IEA,IDA HDA IBA TAS IEA,IDA IEP HDA ISS IBA TAS IEA,HDA,HDA,IDA IBA IEA,IEA,HDA TAS,IBA TAS IEA,IEA,HDA IBA TAS IEA,HDA,HDA IEA,HDA,IEA,IBA NAS IEA,IEA,IDA HDA TAS NAS IEA,HDA IBA TAS IEA,HDA IBA IEA,HDA,IDA IEA,IEA,HDA,TAS IEA,HDA,IDA IBA TAS IEA,HDA IBA TAS NAS IEA,TAS,IEA,HDA TAS IEA,ISS IBA TAS IEA,ISS,IDA IBA TAS IEA,IDA IBA TAS IEA,IDA HDA IBA TAS IEA,HDA IBA TAS IEA,HDA,HDA,HDA,IBA TAS IEA,HDA,IDA HDA IBA TAS NAS IEA,HDA,IDA HDA IBA IEA,TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856,3925,5052,2633,140576,4811,5660,5328,143282,26509,259217,960,79026,11098,1410,967,490,3146,23224,64093,2628,302,3671,4313,6376,23406,9423,4645,976,9518,348,79784,6432,91461,130574,5834,1299,1826,80781,1312,10752,23171,151887,8646,6480,347,3490,8404,3015,3148,1767,22836,2201,84418,2246,6678,51299,10590,3910,4852,23089,5054,5764,1191,5327,10434,5375,29028,169044,10592,2934,64855,5730,10178</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0005604</t>
   </si>
   <si>
     <t xml:space="preserve">basement membrane</t>
   </si>
   <si>
+    <t xml:space="preserve">IEA,IDA NAS IEA,IDA,IBA IEA,IEA,IBA IEA,IBA,IEA,IBA IEA,IEA,IDA TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856,4811,977,64093,302,9423,1299,80781,151887,6678,3910</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0099512</t>
   </si>
   <si>
@@ -335,6 +506,12 @@
     <t xml:space="preserve">GO:0099081</t>
   </si>
   <si>
+    <t xml:space="preserve">IEA,IDA IBA IEA,IDA ISS IBA TAS IEA,IDA IBA,IBA NAS IEA,IDA IBA IEA,ISS IBA,IEA,IDA IEA,IDA IBA IEA,IEA,IBA TAS,TAS IEA,IDA IBA NAS IEA,IEA,IBA,IBA,IBA TAS IEA,IBA IEA,IDA IEA,IDA IBA,IBA IEA,IBA IEA,IDA IBA IEA,IEA,IEA,IDA TAS IEA,IBA IEA,IBA TAS IEA,IDA IBA IEA,IEA,IEA,IBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,23499,11004,84722,10763,9124,79026,1410,23224,90417,51203,7168,9055,23336,4313,23406,9212,2670,332,115106,79784,22974,56992,1062,1767,4001,2201,10112,4741,4747,114907,1641,5358</t>
+  </si>
+  <si>
     <t xml:space="preserve">supramolecular polymer</t>
   </si>
   <si>
@@ -350,22 +527,10 @@
     <t xml:space="preserve">GO:0016020, GO:0071944</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0099513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polymeric cytoskeletal fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005856, GO:0099512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005576, GO:0110165</t>
+    <t xml:space="preserve">IDA IEA,IBA IEA,ISS IBA IEA,IEA,IDA,IBA TAS IEA,IDA IBA TAS IEA,TAS IEA,TAS,ISS IEA,IBA,TAS,TAS,IDA ISS IBA TAS IEA,IEA,IBA TAS NAS,IDA IBA TAS NAS IEA,IDA IPI NAS,IDA IEA,IEA,IDA IBA,IDA IBA TAS IEA,IDA ISS IBA TAS IEA,TAS,IDA ISS IBA TAS IEA,IDA ISS IBA TAS,IDA IEA,IBA TAS IEA,IDA IEA,TAS,IDA NAS,ISS IBA TAS IEA,IDA,IDA IPI ISS IBA IEA,IDA,IDA IEA,IDA,IBA IEA,IBA IEA,IBA TAS IEA,IDA ISS IBA IEA,IEA,TAS IEA,TAS IEA,IDA IBA TAS IEA,IDA IBA IEA,TAS IEA,ISS TAS,IDA ISS IBA TAS IEA,IBA TAS IEA,TAS,IDA,IDA IBA,IEA,IEA,IDA TAS,IDA ISS IBA TAS IEA,ISS IBA TAS IEA,TAS IEA,IEA,IDA,IDA IBA TAS IEA,TAS,IDA ISS IBA TAS IEA,IDA IBA TAS IEA,IDA IBA TAS IEA,IBA TAS IEA,ISS IEA,IMP ISS IBA TAS IEA,IBA,TAS,IBA IEA,IEA,TAS,IBA TAS IEA,IBA TAS IEA,TAS,IEA,IBA TAS,ISS IBA IEA,IDA IEA,IDA IPI IBA TAS IEA,IDA,IDA,IDA ISS TAS IEA,IDA,ISS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23499,9077,64123,2633,140576,57863,4921,5999,6004,149111,4811,5660,5328,26509,83742,977,960,79026,26011,1410,2012,967,4035,4193,490,5829,3146,8660,23224,9369,113146,11245,90417,302,7168,23205,9055,56963,23336,51330,2013,4313,6376,9953,5376,284119,54549,11031,1000,976,348,83987,25927,3099,130574,10267,3785,1826,1312,10752,23171,2596,11343,80333,5099,5156,4889,55714,6507,22836,84418,57717,202374,6678,51299,10457,5054,5764,8795,2185,10434,9568,2934,64855,56262,5358,10178</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0044877</t>
@@ -380,6 +545,12 @@
     <t xml:space="preserve">GO:0005488</t>
   </si>
   <si>
+    <t xml:space="preserve">IDA NAS,IPI,ISS IEA,IDA IBA IEA,IDA IBA IEA,IDA IEA,IDA IPI IEA,NAS,IPI,IEA,IDA,IDA,IDA,IBA IEA,IEA,ISS IBA,ISS IBA IEA,IPI IEA,IDA,IBA,IEA,IBA,IDA IEA,IDA IEA,IBA,IEA,IEA,IBA,IDA,IEA,IDA,IDA IBA IEA,IPI,IBA IEA,IPI,IEA,IEA,IPI,IBA IEA,IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23499,2633,10763,4921,1063,4811,977,960,1410,6876,4035,4193,3146,8660,23224,7168,23336,2013,6376,23406,2670,4645,348,79784,114793,1373,5156,8404,3015,2983,2246,6678,1026,10457,5764,4747,2185,1191,2934,5358</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0008092</t>
   </si>
   <si>
@@ -389,6 +560,12 @@
     <t xml:space="preserve">GO:0005515</t>
   </si>
   <si>
+    <t xml:space="preserve">IDA IMP IBA,IDA NAS IEA,IDA IBA IEA,IDA IPI,ISS IBA IEA,IEA,ISS IBA IEA,IEA,IEA,IPI,ISS IEA,IDA,IBA IEA,IEA,IPI ISS IBA TAS IEA,IPI IBA IEA,IDA IBA,IDA IBA IEA,TAS,IBA IEA,IPI,IDA IEA,IBA IEA,IBA,IPI,IBA IEA,IDA IBA IEA,IBA IEA,TAS,IPI,IBA,IDA IPI IBA IEA,IDA IMP IEA,IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,23499,11004,2633,84722,1063,9124,1410,6876,5829,23224,90417,51203,302,7168,9055,23336,23406,332,4645,348,79784,114793,22974,3785,56992,1062,10112,4741,1191,11075,2934,1641,5358</t>
+  </si>
+  <si>
     <t xml:space="preserve">HP:0001239</t>
   </si>
   <si>
@@ -401,6 +578,12 @@
     <t xml:space="preserve">HP:0003019, HP:0100360</t>
   </si>
   <si>
+    <t xml:space="preserve">HP,HP,HP,HP,HP,HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57863,4921,55384,4313,2201,157570</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0401332</t>
   </si>
   <si>
@@ -413,6 +596,12 @@
     <t xml:space="preserve">HPA:0401331</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,3988,4288,960,196410,4035,490,3146,23406,976,9518,4175,80781,6480,347,5156,3148,10590,11168,2934</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0471411</t>
   </si>
   <si>
@@ -422,6 +611,12 @@
     <t xml:space="preserve">HPA:0470000</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,140576,64710,1063,5660,4288,977,6240,960,490,3146,23224,113146,90417,51203,2628,302,9055,7153,115106,348,6432,4175,55854,80781,1312,10460,1062,3148,4001,9232,1026,23089,1345,29028,11168,2934</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0461391</t>
   </si>
   <si>
@@ -431,6 +626,12 @@
     <t xml:space="preserve">HPA:0460000</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,140576,64710,1063,5660,4288,977,960,490,5829,3146,23224,113146,90417,51203,2628,302,9055,9212,7153,332,115106,6432,4175,55854,80781,1312,347,10460,3015,1062,3148,7204,4001,9232,1345,29028,11168</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0090972</t>
   </si>
   <si>
@@ -440,34 +641,148 @@
     <t xml:space="preserve">HPA:0090971</t>
   </si>
   <si>
+    <t xml:space="preserve">Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5660,3988,1410,490,5829,2628,794,23406,2670,348,343990,1826,10752,6480,347,6678,2934</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0471391</t>
   </si>
   <si>
     <t xml:space="preserve">skin 2; cells in basal layer[≥Low]</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,140576,64710,1063,5660,4288,977,6240,960,490,5829,3146,23224,113146,90417,51203,2628,302,9055,9212,7153,332,115106,6432,4175,55854,80781,1312,347,10460,1062,3148,7204,4001,9232,1345,29028,11168,2934</t>
+  </si>
+  <si>
     <t xml:space="preserve">cerebellum; granular cells - cytoplasm/membrane[≥Low]</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0090000</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57863,5660,3988,1410,490,5829,2628,794,23406,2670,348,343990,1826,1312,10752,6480,347,6678,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; mucosal lymphoid cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,3988,4288,960,196410,4035,490,3146,7168,23406,976,9518,4175,80781,6480,347,5156,3148,10590,11168,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; cells in spinous layer[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140576,64710,5660,4288,960,490,3146,23224,113146,90417,51203,2628,302,9055,115106,348,6432,4175,55854,80781,1312,10460,3015,1062,3148,4001,9232,1026,23089,1345,29028,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; peripheral nerve/ganglion[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,57863,960,3146,51203,7168,284119,1000,4645,976,80781,10752,3148,10590,4747,11168,9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0471442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; fibrohistiocytic cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0471441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Supported,Enhanced,Supported,Enhanced,Supported,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Supported,Supported,Supported,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,64710,5660,5328,4288,977,960,967,4035,490,3146,23224,113146,2628,302,9055,7153,115106,6432,4175,55854,80781,347,5156,3148,7204,4001,6678,1026,5327,1345,11168,2934</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0471412</t>
   </si>
   <si>
     <t xml:space="preserve">skin 2; cells in spinous layer[≥Medium]</t>
   </si>
   <si>
-    <t xml:space="preserve">rectum; mucosal lymphoid cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; cells in spinous layer[≥Low]</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,140576,64710,1063,5660,4288,977,960,3146,23224,113146,51203,2628,302,9055,7153,6432,4175,55854,10460,1062,3148,4001,9232,1026,23089,1345,29028,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; cells in spinous layer[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140576,64710,5660,4288,960,3146,23224,113146,51203,2628,302,115106,348,4175,55854,80781,10460,3015,1062,3148,4001,9232,23089,1345,29028,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0131331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colon; mucosal lymphoid cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0130000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,3988,4288,960,4035,490,3146,7168,23406,976,9518,4175,80781,6480,347,3148,10590,11168,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0471443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; fibrohistiocytic cells[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Supported,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Supported,Supported,Supported,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,64710,5660,5328,960,967,4035,3146,113146,2628,302,4175,55854,80781,347,3148,7204,4001,6678,1026,11168,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0131332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colon; mucosal lymphoid cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,3988,4288,960,4035,3146,7168,23406,976,9518,80781,6480,347,3148,11168,2934</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0481301</t>
@@ -479,46 +794,10 @@
     <t xml:space="preserve">HPA:0480000</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0400241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; peripheral nerve/ganglion[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0471442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; fibrohistiocytic cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0471441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0131332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon; mucosal lymphoid cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0131331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon; mucosal lymphoid cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0130000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0471443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; fibrohistiocytic cells[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; cells in spinous layer[≥Medium]</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,11004,1063,5328,3988,4288,960,196410,490,3146,51203,7168,9212,1000,4645,4175,1373,80781,347,3148,11168</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0090973</t>
@@ -527,6 +806,24 @@
     <t xml:space="preserve">cerebellum; granular cells - cytoplasm/membrane[High]</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3988,1410,5829,23406,2670,1826,10752,6480,347,6678,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; fibrohistiocytic cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supported,Supported,Supported,Supported,Enhanced,Supported,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Supported,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Supported,Supported,Supported,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64710,5660,5328,977,960,967,4035,490,3146,23224,113146,2628,302,9055,115106,348,6432,55854,1299,80781,1312,347,5156,3015,1062,3148,7204,4001,6678,5327,1345,11168,2934</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0151293</t>
   </si>
   <si>
@@ -536,6 +833,12 @@
     <t xml:space="preserve">HPA:0151292</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,3988,5080,960,3146,51203,9212,4645,4175,1373,80781,3148,10590,1191,11168</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0461443</t>
   </si>
   <si>
@@ -545,6 +848,63 @@
     <t xml:space="preserve">HPA:0461442</t>
   </si>
   <si>
+    <t xml:space="preserve">Supported,Supported,Supported,Supported,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Supported,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64710,5660,5328,977,960,967,4035,3146,2628,302,348,55854,80781,347,3015,3148,4001,6678,11168,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0091022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerebellum; processes in granular layer[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0091021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57863,1410,5829,9055,794,23406,2670,2596,6480,6507,4741,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerebellum; processes in granular layer[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57863,1410,5829,9055,794,23406,2670,115106,2596,6480,6507,4741,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0471392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; cells in basal layer[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140576,64710,1063,5660,4288,977,960,490,5829,3146,23224,113146,2628,302,9055,9212,7153,332,115106,6432,4175,55854,10460,1062,3148,4001,9232,1345,29028,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0030441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appendix; non-germinal center cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,5328,960,3146,51203,23406,4645,976,9518,4175,6480,3148,10590,11168,2934</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0151291</t>
   </si>
   <si>
@@ -554,13 +914,19 @@
     <t xml:space="preserve">HPA:0150000</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0091022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerebellum; processes in granular layer[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0091021</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,11004,3988,5080,960,196410,490,3146,51203,7168,9212,4645,4175,1373,80781,3148,10590,1191,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; fibrohistiocytic cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Supported,Enhanced,Supported,Enhanced,Supported,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Supported,Supported,Supported,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,64710,5660,5328,4288,977,960,967,4035,490,3146,23224,113146,2628,302,9055,7153,115106,6432,4175,55854,80781,1312,347,5156,1062,3148,7204,4001,6678,1026,5327,1345,11168,2934</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0481291</t>
@@ -569,25 +935,25 @@
     <t xml:space="preserve">small intestine; endocrine cells[≥Low]</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0471392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; cells in basal layer[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; fibrohistiocytic cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0030441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appendix; non-germinal center cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0030000</t>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,3988,5080,960,196410,490,3146,51203,7168,9212,4645,4175,1373,80781,3148,10590,1191,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0091032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerebellum; processes in molecular layer[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0091031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10763,1410,5829,2628,9055,2670,348,1312,6480,6678,4741,2934</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0481293</t>
@@ -599,48 +965,105 @@
     <t xml:space="preserve">HPA:0481292</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0091032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerebellum; processes in molecular layer[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0091031</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,3988,5080,960,3146,51203,9212,4645,1373,80781,3148,10590,1191,11168</t>
   </si>
   <si>
     <t xml:space="preserve">small intestine; endocrine cells[≥Medium]</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,3988,5080,960,196410,3146,51203,7168,9212,4645,4175,1373,80781,3148,10590,1191,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; cells in basal layer[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140576,64710,5660,4288,977,960,490,3146,23224,113146,2628,302,9055,7153,115106,4175,55854,10460,3015,1062,3148,4001,9232,1345,29028,11168</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0401291</t>
   </si>
   <si>
     <t xml:space="preserve">rectum; endocrine cells[≥Low]</t>
   </si>
   <si>
-    <t xml:space="preserve">skin 2; fibrohistiocytic cells[≥Low]</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,11004,5328,5080,960,196410,490,3146,51203,7168,9212,4645,976,4175,80781,3148,10590,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; fibrohistiocytic cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supported,Supported,Supported,Supported,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Supported,Enhanced,Supported,Supported,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64710,5660,5328,977,960,967,4035,3146,23224,2628,302,9055,115106,348,55854,1299,80781,347,5156,3015,3148,4001,6678,5327,1345,11168,2934</t>
   </si>
   <si>
     <t xml:space="preserve">cerebellum; processes in molecular layer[≥Low]</t>
   </si>
   <si>
+    <t xml:space="preserve">HPA:0470203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; endothelial cells[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0470202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supported,Supported,Supported,Supported,Supported,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Supported,Supported,Supported,Supported,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64710,5328,977,5829,3146,302,9055,115106,55854,80781,3148,7204,4001,6678,1026,5327,11168</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0031291</t>
   </si>
   <si>
     <t xml:space="preserve">appendix; endocrine cells[≥Low]</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0461392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; cells in basal layer[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerebellum; processes in granular layer[≥Low]</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,11004,5080,960,196410,490,3146,51203,7168,9212,4645,976,4175,80781,3148,10590,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0130891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colon; goblet cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,5328,4288,960,196410,490,3146,4645,976,9518,4175,80781,3148,11168,2934</t>
   </si>
   <si>
     <t xml:space="preserve">duodenum; endocrine cells[≥Medium]</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,3988,5080,960,196410,3146,51203,7168,9212,4645,4175,1373,80781,3148,10590,1191,11168</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0401293</t>
   </si>
   <si>
@@ -650,25 +1073,115 @@
     <t xml:space="preserve">HPA:0401292</t>
   </si>
   <si>
-    <t xml:space="preserve">skin 1; fibrohistiocytic cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0130891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon; goblet cells[≥Low]</t>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,5080,960,3146,51203,9212,4645,976,4175,3148,10590,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; peripheral nerve/ganglion[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,57863,960,3146,284119,1000,976,10752,3148,10590,11168,9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; endothelial cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0470201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Supported,Supported,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Supported,Supported,Supported,Supported,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,64710,5660,5328,977,490,5829,3146,23224,113146,302,9055,115106,348,6432,55854,80781,3148,7204,4001,6678,1026,5327,1345,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0131292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colon; endocrine cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0131291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,5080,960,196410,490,3146,51203,7168,9212,4645,4175,80781,3148,10590,11168</t>
   </si>
   <si>
     <t xml:space="preserve">rectum; endocrine cells[≥Medium]</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0131292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon; endocrine cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0131291</t>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,5080,960,490,3146,51203,7168,9212,4645,976,4175,80781,3148,10590,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0460203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; endothelial cells[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0460202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supported,Supported,Supported,Supported,Supported,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Supported,Supported,Supported,Supported,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64710,5328,977,5829,3146,302,9055,115106,80781,3015,3148,7204,4001,6678,5327,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; peripheral nerve/ganglion[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,57863,960,3146,1000,10752,3148,10590,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0151302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duodenum; enterocytes[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0151301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,3988,196410,490,3146,51203,7168,9212,1000,4645,4175,1373,80781,3148,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; fibroblasts[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57863,4035,3146,80781,3148,11168,2934</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0031292</t>
@@ -677,22 +1190,34 @@
     <t xml:space="preserve">appendix; endocrine cells[≥Medium]</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0151302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duodenum; enterocytes[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0151301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; peripheral nerve/ganglion[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400242</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,11004,5080,960,3146,51203,7168,9212,4645,976,4175,80781,3148,10590,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duodenum; enterocytes[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,3988,196410,490,3146,51203,7168,9212,1000,4645,976,4175,1373,80781,3148,11168,9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; goblet cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,5328,4288,960,490,3146,4645,976,4175,80781,3148,11168,2934</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0471393</t>
@@ -701,34 +1226,10 @@
     <t xml:space="preserve">skin 2; cells in basal layer[High]</t>
   </si>
   <si>
-    <t xml:space="preserve">duodenum; enterocytes[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0470203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; endothelial cells[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0470202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; goblet cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; fibroblasts[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400652</t>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140576,64710,4288,977,960,3146,23224,113146,302,9212,7153,4175,55854,3148,4001</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0480891</t>
@@ -737,55 +1238,136 @@
     <t xml:space="preserve">small intestine; goblet cells[≥Low]</t>
   </si>
   <si>
-    <t xml:space="preserve">skin 2; endothelial cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0470201</t>
+    <t xml:space="preserve">Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,5328,960,196410,490,3146,9212,4645,976,4175,1373,80781,3148,11168,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0401301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; enterocytes[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,5328,4288,960,196410,490,3146,51203,7168,9212,4645,976,4175,80781,3148,11168,9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0090902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerebellum; Bergmann glia - cytoplasm/membrane[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0090901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140576,57863,5660,1410,348,343990,1312,6678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0030442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appendix; non-germinal center cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,960,3146,51203,23406,4645,976,4175,6480,3148,11168,2934</t>
   </si>
   <si>
     <t xml:space="preserve">colon; endocrine cells[≥Low]</t>
   </si>
   <si>
-    <t xml:space="preserve">rectum; peripheral nerve/ganglion[≥Medium]</t>
-  </si>
-  <si>
     <t xml:space="preserve">HPA:0400651</t>
   </si>
   <si>
     <t xml:space="preserve">rectum; fibroblasts[≥Low]</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Supported,Supported,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57863,5328,4035,3146,80781,5156,3148,11168,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; eccrine glands[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1063,5660,5829,3146,115106,6432,4175,55854,1062,3148,7204,4001,1345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; endothelial cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0460201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Supported,Supported,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Supported,Enhanced,Supported,Supported,Supported,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57863,64710,5660,5328,977,490,5829,3146,23224,302,9055,115106,55854,80781,3015,3148,7204,4001,6678,5327,1345,11168,2934</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0401302</t>
   </si>
   <si>
     <t xml:space="preserve">rectum; enterocytes[≥Medium]</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0401301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0460203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; endothelial cells[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0460202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0090902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerebellum; Bergmann glia - cytoplasm/membrane[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0090901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0030442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appendix; non-germinal center cells[≥Medium]</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,5328,4288,960,490,3146,51203,9212,4645,976,4175,80781,3148,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; lymphocytes[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Supported,Supported,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Supported,Supported,Enhanced,Supported,Supported,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140576,5660,5328,4288,960,5829,3146,51203,302,9055,115106,3015,3148,7204,4001,1345,11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0471471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; lymphocytes[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,140576,64710,5660,5328,4288,960,490,5829,3146,23224,51203,302,9055,9212,115106,6432,4175,55854,1062,3148,7204,4001,1345,29028,11168,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; langerhans cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supported,Supported,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported,Supported,Enhanced,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64710,5660,5328,960,490,3146,23224,113146,51203,2628,302,9055,115106,6432,55854,1312,3015,1062,3148,7204,4001,23089,1345,11168,2934</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0381191</t>
@@ -797,13 +1379,34 @@
     <t xml:space="preserve">HPA:0380000</t>
   </si>
   <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Supported,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,4288,977,6876,5829,23224,113146,90417,7153,976,9518,343990,1312,2201,6678,1026,23089,2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; endothelial cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supported,Enhanced,Enhanced,Supported,Supported,Enhanced,Supported,Enhanced,Enhanced,Supported,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5328,5080,490,3146,7168,23336,284119,4645,976,80781,3148,11168</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0481302</t>
   </si>
   <si>
     <t xml:space="preserve">small intestine; enterocytes[≥Medium]</t>
   </si>
   <si>
-    <t xml:space="preserve">rectum; enterocytes[≥Low]</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Supported,Supported,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,3988,960,196410,3146,51203,7168,9212,4645,4175,1373,80781,3148,11168</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0130892</t>
@@ -812,88 +1415,10 @@
     <t xml:space="preserve">colon; goblet cells[≥Medium]</t>
   </si>
   <si>
-    <t xml:space="preserve">skin 1; endothelial cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0460201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0091002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerebellum; molecular layer cells - cytoplasm/membrane[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0091001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; langerhans cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0471471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; lymphocytes[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0131302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon; enterocytes[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0131301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0381201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placenta; hofbauer cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; fibroblasts[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; endothelial cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0031301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appendix; enterocytes[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; goblet cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0091003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerebellum; molecular layer cells - cytoplasm/membrane[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; lymphocytes[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; eccrine glands[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0091033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerebellum; processes in molecular layer[High]</t>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Enhanced,Supported,Enhanced,Enhanced,Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925,1063,4288,960,196410,3146,4645,976,4175,80781,3148,11168,2934</t>
   </si>
 </sst>
 </file>
@@ -1268,5197 +1793,5261 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0000000723103420262165</v>
+        <v>0.0000000944925916224892</v>
       </c>
       <c r="D2" t="n">
-        <v>4068</v>
+        <v>4480</v>
       </c>
       <c r="E2" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G2" t="n">
-        <v>0.569444444444444</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03023598820059</v>
+        <v>0.0290178571428571</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M2" t="n">
-        <v>8803</v>
+        <v>8031</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000000582809274120528</v>
+        <v>0.000000139137428185278</v>
       </c>
       <c r="D3" t="n">
-        <v>3873</v>
+        <v>2737</v>
       </c>
       <c r="E3" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F3" t="n">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G3" t="n">
-        <v>0.541666666666667</v>
+        <v>0.408695652173913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0302091402013943</v>
+        <v>0.0343441724515893</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L3" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M3" t="n">
-        <v>8804</v>
+        <v>13728</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00000112235436943009</v>
+        <v>0.00000583769262499961</v>
       </c>
       <c r="D4" t="n">
-        <v>2754</v>
+        <v>3200</v>
       </c>
       <c r="E4" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F4" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0.430555555555556</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0337690631808279</v>
+        <v>0.03125</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L4" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M4" t="n">
-        <v>15031</v>
+        <v>2871</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00000120746659582924</v>
+        <v>0.00000716081236350904</v>
       </c>
       <c r="D5" t="n">
-        <v>3563</v>
+        <v>4259</v>
       </c>
       <c r="E5" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F5" t="n">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.509259259259259</v>
+        <v>0.526086956521739</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0308728599494808</v>
+        <v>0.0284104249823902</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L5" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M5" t="n">
-        <v>15146</v>
+        <v>8032</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0000103623691109614</v>
+        <v>0.00000832809358685211</v>
       </c>
       <c r="D6" t="n">
-        <v>3049</v>
+        <v>1274</v>
       </c>
       <c r="E6" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F6" t="n">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="G6" t="n">
-        <v>0.449074074074074</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0318137094129223</v>
+        <v>0.043171114599686</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L6" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M6" t="n">
-        <v>3166</v>
+        <v>3223</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0000116778568873696</v>
+        <v>0.0000157930296564843</v>
       </c>
       <c r="D7" t="n">
-        <v>872</v>
+        <v>3896</v>
       </c>
       <c r="E7" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F7" t="n">
+        <v>113</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.491304347826087</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0290041067761807</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13840</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.203703703703704</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0504587155963303</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3055</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
+      <c r="P7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0000170786281820941</v>
+        <v>0.0000593183141081879</v>
       </c>
       <c r="D8" t="n">
-        <v>1166</v>
+        <v>365</v>
       </c>
       <c r="E8" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F8" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.240740740740741</v>
+        <v>0.11304347826087</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0445969125214408</v>
+        <v>0.0712328767123288</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L8" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M8" t="n">
-        <v>3567</v>
+        <v>3616</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0000195314342921787</v>
+        <v>0.0000614845146543068</v>
       </c>
       <c r="D9" t="n">
-        <v>1320</v>
+        <v>935</v>
       </c>
       <c r="E9" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F9" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.259259259259259</v>
+        <v>0.191304347826087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0424242424242424</v>
+        <v>0.0470588235294118</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L9" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M9" t="n">
-        <v>2866</v>
+        <v>2782</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00023196609788516</v>
+        <v>0.000107955805712123</v>
       </c>
       <c r="D10" t="n">
-        <v>2516</v>
+        <v>1061</v>
       </c>
       <c r="E10" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F10" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.37962962962963</v>
+        <v>0.204347826086957</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0325914149443561</v>
+        <v>0.0442978322337418</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="L10" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M10" t="n">
-        <v>15158</v>
+        <v>10550</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000311802892251359</v>
+        <v>0.000274533685508602</v>
       </c>
       <c r="D11" t="n">
-        <v>1115</v>
+        <v>7684</v>
       </c>
       <c r="E11" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F11" t="n">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="G11" t="n">
-        <v>0.222222222222222</v>
+        <v>0.765217391304348</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0430493273542601</v>
+        <v>0.0229047371160854</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L11" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M11" t="n">
-        <v>11458</v>
+        <v>14004</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000335599376945285</v>
+        <v>0.00053630285701754</v>
       </c>
       <c r="D12" t="n">
-        <v>971</v>
+        <v>7928</v>
       </c>
       <c r="E12" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F12" t="n">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="G12" t="n">
-        <v>0.203703703703704</v>
+        <v>0.778260869565217</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0453141091658084</v>
+        <v>0.0225782038345106</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="L12" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M12" t="n">
-        <v>11549</v>
+        <v>16811</v>
       </c>
       <c r="N12" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000415227408849438</v>
+        <v>0.000736566678530963</v>
       </c>
       <c r="D13" t="n">
-        <v>338</v>
+        <v>2802</v>
       </c>
       <c r="E13" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="G13" t="n">
-        <v>0.111111111111111</v>
+        <v>0.373913043478261</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0710059171597633</v>
+        <v>0.0306923625981442</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L13" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M13" t="n">
-        <v>3983</v>
+        <v>13852</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000469512512480103</v>
+        <v>0.00111216323485992</v>
       </c>
       <c r="D14" t="n">
-        <v>4319</v>
+        <v>1142</v>
       </c>
       <c r="E14" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F14" t="n">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="G14" t="n">
-        <v>0.546296296296296</v>
+        <v>0.204347826086957</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0273211391525816</v>
+        <v>0.0411558669001751</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="L14" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M14" t="n">
-        <v>5645</v>
+        <v>2681</v>
       </c>
       <c r="N14" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000551172295346337</v>
+        <v>0.00207101269895315</v>
       </c>
       <c r="D15" t="n">
-        <v>7016</v>
+        <v>7210</v>
       </c>
       <c r="E15" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F15" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G15" t="n">
-        <v>0.763888888888889</v>
+        <v>0.721739130434783</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0235176738882554</v>
+        <v>0.0230235783633842</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="L15" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M15" t="n">
-        <v>15321</v>
+        <v>14008</v>
       </c>
       <c r="N15" t="s">
-        <v>52</v>
+        <v>81</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0010059894961273</v>
+        <v>0.00219557087288353</v>
       </c>
       <c r="D16" t="n">
-        <v>1044</v>
+        <v>1823</v>
       </c>
       <c r="E16" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F16" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G16" t="n">
-        <v>0.208333333333333</v>
+        <v>0.273913043478261</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0431034482758621</v>
+        <v>0.0345584201865058</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L16" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M16" t="n">
-        <v>2933</v>
+        <v>3648</v>
       </c>
       <c r="N16" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00101728150507981</v>
+        <v>0.00327710993135107</v>
       </c>
       <c r="D17" t="n">
-        <v>1716</v>
+        <v>5429</v>
       </c>
       <c r="E17" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F17" t="n">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G17" t="n">
-        <v>0.287037037037037</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0361305361305361</v>
+        <v>0.0248664579112175</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="L17" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M17" t="n">
-        <v>4021</v>
+        <v>14092</v>
       </c>
       <c r="N17" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00173899904397638</v>
+        <v>0.00524430230600966</v>
       </c>
       <c r="D18" t="n">
-        <v>7417</v>
+        <v>2776</v>
       </c>
       <c r="E18" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F18" t="n">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>0.787037037037037</v>
+        <v>0.360869565217391</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0229203181879466</v>
+        <v>0.0298991354466859</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="L18" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M18" t="n">
-        <v>18612</v>
+        <v>7050</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00195399242772794</v>
+        <v>0.00644039623195605</v>
       </c>
       <c r="D19" t="n">
-        <v>2493</v>
+        <v>1920</v>
       </c>
       <c r="E19" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F19" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G19" t="n">
-        <v>0.365740740740741</v>
+        <v>0.278260869565217</v>
       </c>
       <c r="H19" t="n">
-        <v>0.031688728439631</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="L19" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M19" t="n">
-        <v>7716</v>
+        <v>14274</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00250805263344134</v>
+        <v>0.00903609898958075</v>
       </c>
       <c r="D20" t="n">
-        <v>4485</v>
+        <v>2026</v>
       </c>
       <c r="E20" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F20" t="n">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="G20" t="n">
-        <v>0.550925925925926</v>
+        <v>0.28695652173913</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0265328874024526</v>
+        <v>0.0325765054294176</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="L20" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M20" t="n">
-        <v>19757</v>
+        <v>13536</v>
       </c>
       <c r="N20" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00343795258183204</v>
+        <v>0.0117681151234509</v>
       </c>
       <c r="D21" t="n">
-        <v>1688</v>
+        <v>473</v>
       </c>
       <c r="E21" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.277777777777778</v>
+        <v>0.11304347826087</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0355450236966825</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="L21" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M21" t="n">
-        <v>15598</v>
+        <v>367</v>
       </c>
       <c r="N21" t="s">
-        <v>66</v>
+        <v>108</v>
+      </c>
+      <c r="O21" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00928309316016485</v>
+        <v>0.0304655617542669</v>
       </c>
       <c r="D22" t="n">
-        <v>4956</v>
+        <v>497</v>
       </c>
       <c r="E22" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F22" t="n">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>0.583333333333333</v>
+        <v>0.11304347826087</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0254237288135593</v>
+        <v>0.0523138832997988</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="L22" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M22" t="n">
-        <v>15410</v>
+        <v>570</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>113</v>
+      </c>
+      <c r="O22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0179138157552496</v>
+        <v>0.0318017613098953</v>
       </c>
       <c r="D23" t="n">
-        <v>923</v>
+        <v>4838</v>
       </c>
       <c r="E23" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F23" t="n">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="G23" t="n">
-        <v>0.180555555555556</v>
+        <v>0.526086956521739</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0422535211267606</v>
+        <v>0.0250103348491112</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="L23" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M23" t="n">
-        <v>5816</v>
+        <v>5200</v>
       </c>
       <c r="N23" t="s">
-        <v>71</v>
+        <v>116</v>
+      </c>
+      <c r="O23" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0202642187541609</v>
+        <v>0.0319337511182668</v>
       </c>
       <c r="D24" t="n">
-        <v>6737</v>
+        <v>775</v>
       </c>
       <c r="E24" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F24" t="n">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.722222222222222</v>
+        <v>0.147826086956522</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0231557072881104</v>
+        <v>0.0438709677419355</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="L24" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M24" t="n">
-        <v>15325</v>
+        <v>18343</v>
       </c>
       <c r="N24" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="O24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.021266043497122</v>
+        <v>0.0347273739873511</v>
       </c>
       <c r="D25" t="n">
-        <v>2128</v>
+        <v>3946</v>
       </c>
       <c r="E25" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F25" t="n">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="G25" t="n">
-        <v>0.314814814814815</v>
+        <v>0.452173913043478</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0319548872180451</v>
+        <v>0.0263558033451597</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="L25" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M25" t="n">
-        <v>14835</v>
+        <v>2781</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="O25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0263649371116027</v>
+        <v>0.0395710529898933</v>
       </c>
       <c r="D26" t="n">
-        <v>719</v>
+        <v>408</v>
       </c>
       <c r="E26" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F26" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.152777777777778</v>
+        <v>0.1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0458970792767733</v>
+        <v>0.0563725490196078</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="L26" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M26" t="n">
-        <v>307</v>
+        <v>13537</v>
       </c>
       <c r="N26" t="s">
-        <v>56</v>
+        <v>129</v>
+      </c>
+      <c r="O26" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0266086408331988</v>
+        <v>0.0496540345781525</v>
       </c>
       <c r="D27" t="n">
-        <v>1013</v>
+        <v>3870</v>
       </c>
       <c r="E27" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F27" t="n">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G27" t="n">
-        <v>0.189814814814815</v>
+        <v>0.443478260869565</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0404738400789733</v>
+        <v>0.0263565891472868</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="L27" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M27" t="n">
-        <v>16030</v>
+        <v>7002</v>
       </c>
       <c r="N27" t="s">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="O27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0266086408331988</v>
+        <v>0.000000147489839152508</v>
       </c>
       <c r="D28" t="n">
-        <v>1013</v>
+        <v>3251</v>
       </c>
       <c r="E28" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F28" t="n">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="G28" t="n">
-        <v>0.189814814814815</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0404738400789733</v>
+        <v>0.0322977545370655</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="L28" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M28" t="n">
-        <v>15159</v>
+        <v>2801</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
+        <v>139</v>
+      </c>
+      <c r="O28" t="s">
+        <v>140</v>
+      </c>
+      <c r="P28" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0294026465141578</v>
+        <v>0.00000563955118199623</v>
       </c>
       <c r="D29" t="n">
-        <v>455</v>
+        <v>232</v>
       </c>
       <c r="E29" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.115740740740741</v>
+        <v>0.0956521739130435</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0549450549450549</v>
+        <v>0.0948275862068965</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="L29" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M29" t="n">
-        <v>464</v>
+        <v>2367</v>
       </c>
       <c r="N29" t="s">
-        <v>86</v>
+        <v>144</v>
+      </c>
+      <c r="O29" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.033827680810305</v>
+        <v>0.0000151819011662284</v>
       </c>
       <c r="D30" t="n">
-        <v>727</v>
+        <v>292</v>
       </c>
       <c r="E30" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F30" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.152777777777778</v>
+        <v>0.104347826086957</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0453920220082531</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="K30" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="L30" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M30" t="n">
-        <v>20215</v>
+        <v>930</v>
       </c>
       <c r="N30" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="O30" t="s">
+        <v>150</v>
+      </c>
+      <c r="P30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.000000151805003011085</v>
+        <v>0.0000151819011662284</v>
       </c>
       <c r="D31" t="n">
-        <v>3029</v>
+        <v>292</v>
       </c>
       <c r="E31" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F31" t="n">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>0.467592592592593</v>
+        <v>0.104347826086957</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0333443380653681</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="I31" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="L31" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M31" t="n">
-        <v>3128</v>
+        <v>1031</v>
       </c>
       <c r="N31" t="s">
-        <v>92</v>
+        <v>147</v>
+      </c>
+      <c r="O31" t="s">
+        <v>150</v>
+      </c>
+      <c r="P31" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00000200053483213962</v>
+        <v>0.000596111904640035</v>
       </c>
       <c r="D32" t="n">
-        <v>216</v>
+        <v>2240</v>
       </c>
       <c r="E32" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G32" t="n">
-        <v>0.101851851851852</v>
+        <v>0.321739130434783</v>
       </c>
       <c r="H32" t="n">
-        <v>0.101851851851852</v>
+        <v>0.0330357142857143</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="K32" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="L32" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M32" t="n">
-        <v>2675</v>
+        <v>198</v>
       </c>
       <c r="N32" t="s">
-        <v>95</v>
+        <v>139</v>
+      </c>
+      <c r="O32" t="s">
+        <v>155</v>
+      </c>
+      <c r="P32" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0000241905733208867</v>
+        <v>0.000860063985905203</v>
       </c>
       <c r="D33" t="n">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c r="E33" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F33" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>0.106481481481481</v>
+        <v>0.0478260869565217</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0855018587360595</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="K33" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="L33" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M33" t="n">
-        <v>1093</v>
+        <v>223</v>
       </c>
       <c r="N33" t="s">
-        <v>98</v>
+        <v>142</v>
+      </c>
+      <c r="O33" t="s">
+        <v>159</v>
+      </c>
+      <c r="P33" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0000241905733208867</v>
+        <v>0.00336035367921157</v>
       </c>
       <c r="D34" t="n">
-        <v>269</v>
+        <v>670</v>
       </c>
       <c r="E34" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F34" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G34" t="n">
-        <v>0.106481481481481</v>
+        <v>0.143478260869565</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0855018587360595</v>
+        <v>0.0492537313432836</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="J34" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="L34" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M34" t="n">
-        <v>1197</v>
+        <v>3374</v>
       </c>
       <c r="N34" t="s">
-        <v>96</v>
+        <v>163</v>
+      </c>
+      <c r="O34" t="s">
+        <v>164</v>
+      </c>
+      <c r="P34" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0000318730866018845</v>
+        <v>0.00414538275736962</v>
       </c>
       <c r="D35" t="n">
-        <v>2154</v>
+        <v>676</v>
       </c>
       <c r="E35" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F35" t="n">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G35" t="n">
-        <v>0.351851851851852</v>
+        <v>0.143478260869565</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0352831940575673</v>
+        <v>0.0488165680473373</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="K35" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="L35" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M35" t="n">
-        <v>240</v>
+        <v>3351</v>
       </c>
       <c r="N35" t="s">
-        <v>92</v>
+        <v>167</v>
+      </c>
+      <c r="O35" t="s">
+        <v>164</v>
+      </c>
+      <c r="P35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.000534614573214693</v>
+        <v>0.0063417853037799</v>
       </c>
       <c r="D36" t="n">
-        <v>62</v>
+        <v>2979</v>
       </c>
       <c r="E36" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0509259259259259</v>
+        <v>0.378260869565217</v>
       </c>
       <c r="H36" t="n">
-        <v>0.17741935483871</v>
+        <v>0.0292044310171198</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="J36" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="K36" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="L36" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M36" t="n">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="N36" t="s">
-        <v>93</v>
+        <v>170</v>
+      </c>
+      <c r="O36" t="s">
+        <v>171</v>
+      </c>
+      <c r="P36" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.000922071509715286</v>
+        <v>0.0165681383928519</v>
       </c>
       <c r="D37" t="n">
-        <v>591</v>
+        <v>975</v>
       </c>
       <c r="E37" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F37" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>0.148148148148148</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0541455160744501</v>
+        <v>0.041025641025641</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="J37" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="K37" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="L37" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M37" t="n">
-        <v>3777</v>
+        <v>6099</v>
       </c>
       <c r="N37" t="s">
-        <v>106</v>
+        <v>176</v>
+      </c>
+      <c r="O37" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00117117799888279</v>
+        <v>0.0480218729304632</v>
       </c>
       <c r="D38" t="n">
-        <v>597</v>
+        <v>789</v>
       </c>
       <c r="E38" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F38" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G38" t="n">
-        <v>0.148148148148148</v>
+        <v>0.147826086956522</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0536013400335008</v>
+        <v>0.0430925221799747</v>
       </c>
       <c r="I38" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="K38" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="L38" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M38" t="n">
-        <v>3747</v>
+        <v>1548</v>
       </c>
       <c r="N38" t="s">
-        <v>108</v>
+        <v>181</v>
+      </c>
+      <c r="O38" t="s">
+        <v>182</v>
+      </c>
+      <c r="P38" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00245801177734461</v>
+        <v>0.00747575394221986</v>
       </c>
       <c r="D39" t="n">
-        <v>2784</v>
+        <v>26</v>
       </c>
       <c r="E39" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F39" t="n">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>0.393518518518519</v>
+        <v>0.0260869565217391</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0305316091954023</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="I39" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="J39" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="K39" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="L39" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M39" t="n">
-        <v>514</v>
+        <v>946</v>
       </c>
       <c r="N39" t="s">
-        <v>111</v>
+        <v>187</v>
+      </c>
+      <c r="O39" t="s">
+        <v>188</v>
+      </c>
+      <c r="P39" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0211351851951633</v>
+        <v>0.00000196770952106342</v>
       </c>
       <c r="D40" t="n">
-        <v>447</v>
+        <v>263</v>
       </c>
       <c r="E40" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G40" t="n">
-        <v>0.115740740740741</v>
+        <v>0.091304347826087</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0559284116331096</v>
+        <v>0.0798479087452472</v>
       </c>
       <c r="I40" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="J40" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="K40" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="L40" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M40" t="n">
-        <v>3778</v>
+        <v>569</v>
       </c>
       <c r="N40" t="s">
-        <v>114</v>
+        <v>193</v>
+      </c>
+      <c r="O40" t="s">
+        <v>194</v>
+      </c>
+      <c r="P40" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0491616023991996</v>
+        <v>0.00000320559190380567</v>
       </c>
       <c r="D41" t="n">
-        <v>1734</v>
+        <v>756</v>
       </c>
       <c r="E41" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F41" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G41" t="n">
-        <v>0.268518518518519</v>
+        <v>0.160869565217391</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0334486735870819</v>
+        <v>0.0489417989417989</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="J41" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="K41" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="L41" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M41" t="n">
-        <v>277</v>
+        <v>689</v>
       </c>
       <c r="N41" t="s">
-        <v>117</v>
+        <v>198</v>
+      </c>
+      <c r="O41" t="s">
+        <v>199</v>
+      </c>
+      <c r="P41" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00392804923313273</v>
+        <v>0.0000032598073405563</v>
       </c>
       <c r="D42" t="n">
-        <v>907</v>
+        <v>791</v>
       </c>
       <c r="E42" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>0.185185185185185</v>
+        <v>0.165217391304348</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0441014332965821</v>
+        <v>0.0480404551201011</v>
       </c>
       <c r="I42" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="J42" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="K42" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="L42" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M42" t="n">
-        <v>7118</v>
+        <v>628</v>
       </c>
       <c r="N42" t="s">
-        <v>121</v>
+        <v>203</v>
+      </c>
+      <c r="O42" t="s">
+        <v>204</v>
+      </c>
+      <c r="P42" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0122686361121682</v>
+        <v>0.00000996336915410116</v>
       </c>
       <c r="D43" t="n">
-        <v>730</v>
+        <v>189</v>
       </c>
       <c r="E43" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F43" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G43" t="n">
-        <v>0.157407407407407</v>
+        <v>0.0739130434782609</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0465753424657534</v>
+        <v>0.0899470899470899</v>
       </c>
       <c r="I43" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="J43" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="K43" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="L43" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M43" t="n">
-        <v>1959</v>
+        <v>141</v>
       </c>
       <c r="N43" t="s">
-        <v>124</v>
+        <v>208</v>
+      </c>
+      <c r="O43" t="s">
+        <v>209</v>
+      </c>
+      <c r="P43" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0063868231791603</v>
+        <v>0.0000107579124816485</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>863</v>
       </c>
       <c r="E44" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.169565217391304</v>
       </c>
       <c r="H44" t="n">
-        <v>0.24</v>
+        <v>0.0451911935110081</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="J44" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="L44" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M44" t="n">
-        <v>948</v>
+        <v>680</v>
       </c>
       <c r="N44" t="s">
-        <v>128</v>
+        <v>198</v>
+      </c>
+      <c r="O44" t="s">
+        <v>213</v>
+      </c>
+      <c r="P44" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.000000851499753444673</v>
+        <v>0.0000148445525631388</v>
       </c>
       <c r="D45" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E45" t="n">
+        <v>230</v>
+      </c>
+      <c r="F45" t="n">
+        <v>19</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0826086956521739</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0781893004115226</v>
+      </c>
+      <c r="I45" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" t="s">
+        <v>215</v>
+      </c>
+      <c r="L45" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M45" t="n">
+        <v>140</v>
+      </c>
+      <c r="N45" t="s">
         <v>216</v>
       </c>
-      <c r="F45" t="n">
-        <v>21</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.0972222222222222</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.0850202429149798</v>
-      </c>
-      <c r="I45" t="s">
-        <v>129</v>
-      </c>
-      <c r="J45" t="s">
-        <v>130</v>
-      </c>
-      <c r="K45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L45" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M45" t="n">
-        <v>544</v>
-      </c>
-      <c r="N45" t="s">
-        <v>132</v>
+      <c r="O45" t="s">
+        <v>217</v>
+      </c>
+      <c r="P45" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00000167227874408569</v>
+        <v>0.0000564046292309818</v>
       </c>
       <c r="D46" t="n">
-        <v>693</v>
+        <v>348</v>
       </c>
       <c r="E46" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F46" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0956521739130435</v>
       </c>
       <c r="H46" t="n">
-        <v>0.051948051948052</v>
+        <v>0.0632183908045977</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K46" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="L46" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M46" t="n">
-        <v>664</v>
+        <v>568</v>
       </c>
       <c r="N46" t="s">
-        <v>135</v>
+        <v>220</v>
+      </c>
+      <c r="O46" t="s">
+        <v>221</v>
+      </c>
+      <c r="P46" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00000179305523005346</v>
+        <v>0.0000577644730182828</v>
       </c>
       <c r="D47" t="n">
-        <v>728</v>
+        <v>668</v>
       </c>
       <c r="E47" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F47" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G47" t="n">
-        <v>0.171296296296296</v>
+        <v>0.139130434782609</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0508241758241758</v>
+        <v>0.0479041916167665</v>
       </c>
       <c r="I47" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K47" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="L47" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M47" t="n">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="N47" t="s">
-        <v>138</v>
+        <v>203</v>
+      </c>
+      <c r="O47" t="s">
+        <v>225</v>
+      </c>
+      <c r="P47" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00000434260409556807</v>
+        <v>0.0000653160204224764</v>
       </c>
       <c r="D48" t="n">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="E48" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F48" t="n">
         <v>17</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0787037037037037</v>
+        <v>0.0739130434782609</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0965909090909091</v>
+        <v>0.0790697674418605</v>
       </c>
       <c r="I48" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K48" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="L48" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M48" t="n">
-        <v>141</v>
+        <v>571</v>
       </c>
       <c r="N48" t="s">
-        <v>141</v>
+        <v>220</v>
+      </c>
+      <c r="O48" t="s">
+        <v>229</v>
+      </c>
+      <c r="P48" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00000517758092037657</v>
+        <v>0.000121565162227602</v>
       </c>
       <c r="D49" t="n">
-        <v>792</v>
+        <v>726</v>
       </c>
       <c r="E49" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F49" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G49" t="n">
-        <v>0.175925925925926</v>
+        <v>0.143478260869565</v>
       </c>
       <c r="H49" t="n">
-        <v>0.047979797979798</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="I49" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="J49" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K49" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="L49" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M49" t="n">
-        <v>655</v>
+        <v>705</v>
       </c>
       <c r="N49" t="s">
-        <v>135</v>
+        <v>233</v>
+      </c>
+      <c r="O49" t="s">
+        <v>234</v>
+      </c>
+      <c r="P49" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00000640470049318425</v>
+        <v>0.000129966337410201</v>
       </c>
       <c r="D50" t="n">
-        <v>227</v>
+        <v>589</v>
       </c>
       <c r="E50" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F50" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G50" t="n">
-        <v>0.087962962962963</v>
+        <v>0.126086956521739</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0837004405286344</v>
+        <v>0.0492359932088285</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K50" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="L50" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M50" t="n">
-        <v>140</v>
+        <v>690</v>
       </c>
       <c r="N50" t="s">
-        <v>145</v>
+        <v>196</v>
+      </c>
+      <c r="O50" t="s">
+        <v>238</v>
+      </c>
+      <c r="P50" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0000205513717460227</v>
+        <v>0.000313020347322769</v>
       </c>
       <c r="D51" t="n">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="E51" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
-        <v>0.134259259259259</v>
+        <v>0.11304347826087</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0546139359698682</v>
+        <v>0.050682261208577</v>
       </c>
       <c r="I51" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="J51" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="L51" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M51" t="n">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="N51" t="s">
-        <v>133</v>
+        <v>223</v>
+      </c>
+      <c r="O51" t="s">
+        <v>242</v>
+      </c>
+      <c r="P51" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0000238896813618549</v>
+        <v>0.000420464009415402</v>
       </c>
       <c r="D52" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E52" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>0.101851851851852</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0674846625766871</v>
+        <v>0.0604229607250755</v>
       </c>
       <c r="I52" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="L52" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M52" t="n">
-        <v>543</v>
+        <v>237</v>
       </c>
       <c r="N52" t="s">
-        <v>149</v>
+        <v>246</v>
+      </c>
+      <c r="O52" t="s">
+        <v>247</v>
+      </c>
+      <c r="P52" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0000355277398347374</v>
+        <v>0.000423429030038427</v>
       </c>
       <c r="D53" t="n">
-        <v>610</v>
+        <v>392</v>
       </c>
       <c r="E53" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F53" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G53" t="n">
-        <v>0.143518518518519</v>
+        <v>0.0956521739130435</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0508196721311475</v>
+        <v>0.0561224489795918</v>
       </c>
       <c r="I53" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K53" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="L53" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M53" t="n">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="N53" t="s">
-        <v>138</v>
+        <v>231</v>
+      </c>
+      <c r="O53" t="s">
+        <v>251</v>
+      </c>
+      <c r="P53" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0000427205001940721</v>
+        <v>0.000433692094823408</v>
       </c>
       <c r="D54" t="n">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="E54" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F54" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G54" t="n">
-        <v>0.101851851851852</v>
+        <v>0.0739130434782609</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0652818991097923</v>
+        <v>0.0691056910569106</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K54" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="L54" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M54" t="n">
-        <v>704</v>
+        <v>238</v>
       </c>
       <c r="N54" t="s">
-        <v>154</v>
+        <v>244</v>
+      </c>
+      <c r="O54" t="s">
+        <v>255</v>
+      </c>
+      <c r="P54" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0000906596276925712</v>
+        <v>0.000478510161436653</v>
       </c>
       <c r="D55" t="n">
-        <v>192</v>
+        <v>364</v>
       </c>
       <c r="E55" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.091304347826087</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="I55" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="J55" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K55" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="L55" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M55" t="n">
-        <v>546</v>
+        <v>729</v>
       </c>
       <c r="N55" t="s">
-        <v>149</v>
+        <v>259</v>
+      </c>
+      <c r="O55" t="s">
+        <v>260</v>
+      </c>
+      <c r="P55" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.000101563514028604</v>
+        <v>0.000511170172682394</v>
       </c>
       <c r="D56" t="n">
-        <v>674</v>
+        <v>103</v>
       </c>
       <c r="E56" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F56" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>0.148148148148148</v>
+        <v>0.0478260869565217</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0474777448071217</v>
+        <v>0.106796116504854</v>
       </c>
       <c r="I56" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K56" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="L56" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M56" t="n">
-        <v>680</v>
+        <v>142</v>
       </c>
       <c r="N56" t="s">
-        <v>159</v>
+        <v>206</v>
+      </c>
+      <c r="O56" t="s">
+        <v>264</v>
+      </c>
+      <c r="P56" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.000176547069811207</v>
+        <v>0.000534481593667582</v>
       </c>
       <c r="D57" t="n">
-        <v>227</v>
+        <v>776</v>
       </c>
       <c r="E57" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F57" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0787037037037037</v>
+        <v>0.143478260869565</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0748898678414097</v>
+        <v>0.0425257731958763</v>
       </c>
       <c r="I57" t="s">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c r="J57" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K57" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="L57" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M57" t="n">
-        <v>238</v>
+        <v>652</v>
       </c>
       <c r="N57" t="s">
-        <v>162</v>
+        <v>203</v>
+      </c>
+      <c r="O57" t="s">
+        <v>268</v>
+      </c>
+      <c r="P57" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00018448004482306</v>
+        <v>0.000663709939700393</v>
       </c>
       <c r="D58" t="n">
-        <v>309</v>
+        <v>200</v>
       </c>
       <c r="E58" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0925925925925926</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0647249190938511</v>
+        <v>0.075</v>
       </c>
       <c r="I58" t="s">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="J58" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="L58" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M58" t="n">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="N58" t="s">
-        <v>164</v>
+        <v>272</v>
+      </c>
+      <c r="O58" t="s">
+        <v>273</v>
+      </c>
+      <c r="P58" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.000193046433861315</v>
+        <v>0.00079401688199772</v>
       </c>
       <c r="D59" t="n">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="E59" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F59" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G59" t="n">
-        <v>0.101851851851852</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.0579710144927536</v>
       </c>
       <c r="I59" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="J59" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K59" t="s">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="L59" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M59" t="n">
-        <v>681</v>
+        <v>654</v>
       </c>
       <c r="N59" t="s">
-        <v>157</v>
+        <v>277</v>
+      </c>
+      <c r="O59" t="s">
+        <v>278</v>
+      </c>
+      <c r="P59" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.000216952153150107</v>
+        <v>0.000821984487873555</v>
       </c>
       <c r="D60" t="n">
-        <v>463</v>
+        <v>130</v>
       </c>
       <c r="E60" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F60" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G60" t="n">
-        <v>0.115740740740741</v>
+        <v>0.0521739130434783</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0539956803455724</v>
+        <v>0.0923076923076923</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="J60" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K60" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="L60" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M60" t="n">
-        <v>613</v>
+        <v>159</v>
       </c>
       <c r="N60" t="s">
-        <v>150</v>
+        <v>282</v>
+      </c>
+      <c r="O60" t="s">
+        <v>283</v>
+      </c>
+      <c r="P60" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.000261938659815444</v>
+        <v>0.000864814948078044</v>
       </c>
       <c r="D61" t="n">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="E61" t="n">
+        <v>230</v>
+      </c>
+      <c r="F61" t="n">
+        <v>13</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0565217391304348</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0844155844155844</v>
+      </c>
+      <c r="I61" t="s">
+        <v>282</v>
+      </c>
+      <c r="J61" t="s">
+        <v>191</v>
+      </c>
+      <c r="K61" t="s">
+        <v>285</v>
+      </c>
+      <c r="L61" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M61" t="n">
+        <v>158</v>
+      </c>
+      <c r="N61" t="s">
         <v>216</v>
       </c>
-      <c r="F61" t="n">
-        <v>11</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.0509259259259259</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.115789473684211</v>
-      </c>
-      <c r="I61" t="s">
-        <v>169</v>
-      </c>
-      <c r="J61" t="s">
-        <v>130</v>
-      </c>
-      <c r="K61" t="s">
-        <v>170</v>
-      </c>
-      <c r="L61" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M61" t="n">
-        <v>142</v>
-      </c>
-      <c r="N61" t="s">
-        <v>139</v>
+      <c r="O61" t="s">
+        <v>286</v>
+      </c>
+      <c r="P61" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.000263571679972167</v>
+        <v>0.00086565653011892</v>
       </c>
       <c r="D62" t="n">
-        <v>183</v>
+        <v>683</v>
       </c>
       <c r="E62" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F62" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0694444444444444</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0819672131147541</v>
+        <v>0.0439238653001464</v>
       </c>
       <c r="I62" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="J62" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K62" t="s">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="L62" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M62" t="n">
-        <v>259</v>
+        <v>681</v>
       </c>
       <c r="N62" t="s">
-        <v>173</v>
+        <v>211</v>
+      </c>
+      <c r="O62" t="s">
+        <v>290</v>
+      </c>
+      <c r="P62" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.000351641393520902</v>
+        <v>0.0010764559134003</v>
       </c>
       <c r="D63" t="n">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="E63" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F63" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0925925925925926</v>
+        <v>0.0695652173913043</v>
       </c>
       <c r="H63" t="n">
-        <v>0.062111801242236</v>
+        <v>0.0680851063829787</v>
       </c>
       <c r="I63" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="J63" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K63" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="L63" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M63" t="n">
-        <v>629</v>
+        <v>47</v>
       </c>
       <c r="N63" t="s">
-        <v>176</v>
+        <v>294</v>
+      </c>
+      <c r="O63" t="s">
+        <v>295</v>
+      </c>
+      <c r="P63" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.000363139579530999</v>
+        <v>0.00114993940050512</v>
       </c>
       <c r="D64" t="n">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="E64" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F64" t="n">
         <v>19</v>
       </c>
       <c r="G64" t="n">
-        <v>0.087962962962963</v>
+        <v>0.0826086956521739</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0646258503401361</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="I64" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="J64" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="L64" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M64" t="n">
         <v>257</v>
       </c>
       <c r="N64" t="s">
-        <v>179</v>
+        <v>299</v>
+      </c>
+      <c r="O64" t="s">
+        <v>300</v>
+      </c>
+      <c r="P64" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000375706644134721</v>
+        <v>0.00120200609338958</v>
       </c>
       <c r="D65" t="n">
-        <v>119</v>
+        <v>882</v>
       </c>
       <c r="E65" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F65" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="H65" t="n">
-        <v>0.100840336134454</v>
+        <v>0.0396825396825397</v>
       </c>
       <c r="I65" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K65" t="s">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="L65" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M65" t="n">
-        <v>159</v>
+        <v>704</v>
       </c>
       <c r="N65" t="s">
-        <v>182</v>
+        <v>198</v>
+      </c>
+      <c r="O65" t="s">
+        <v>303</v>
+      </c>
+      <c r="P65" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.000401875604894325</v>
+        <v>0.00125780865458963</v>
       </c>
       <c r="D66" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="E66" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F66" t="n">
         <v>19</v>
       </c>
       <c r="G66" t="n">
-        <v>0.087962962962963</v>
+        <v>0.0826086956521739</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0641891891891892</v>
+        <v>0.0584615384615385</v>
       </c>
       <c r="I66" t="s">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="J66" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="L66" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M66" t="n">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="N66" t="s">
-        <v>154</v>
+        <v>259</v>
+      </c>
+      <c r="O66" t="s">
+        <v>307</v>
+      </c>
+      <c r="P66" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.000465779076071409</v>
+        <v>0.00142356812597376</v>
       </c>
       <c r="D67" t="n">
-        <v>617</v>
+        <v>137</v>
       </c>
       <c r="E67" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F67" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G67" t="n">
-        <v>0.134259259259259</v>
+        <v>0.0521739130434783</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0470016207455429</v>
+        <v>0.0875912408759124</v>
       </c>
       <c r="I67" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K67" t="s">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="L67" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M67" t="n">
-        <v>656</v>
+        <v>162</v>
       </c>
       <c r="N67" t="s">
-        <v>142</v>
+        <v>311</v>
+      </c>
+      <c r="O67" t="s">
+        <v>312</v>
+      </c>
+      <c r="P67" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.00167583776541197</v>
+      </c>
+      <c r="D68" t="n">
+        <v>189</v>
+      </c>
+      <c r="E68" t="n">
+        <v>230</v>
+      </c>
+      <c r="F68" t="n">
         <v>14</v>
       </c>
-      <c r="B68" t="b">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.00049994939764773</v>
-      </c>
-      <c r="D68" t="n">
-        <v>725</v>
-      </c>
-      <c r="E68" t="n">
-        <v>216</v>
-      </c>
-      <c r="F68" t="n">
-        <v>32</v>
-      </c>
       <c r="G68" t="n">
-        <v>0.148148148148148</v>
+        <v>0.0608695652173913</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0441379310344828</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="I68" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="J68" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K68" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="L68" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M68" t="n">
-        <v>627</v>
+        <v>728</v>
       </c>
       <c r="N68" t="s">
-        <v>138</v>
+        <v>316</v>
+      </c>
+      <c r="O68" t="s">
+        <v>317</v>
+      </c>
+      <c r="P68" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.000527158076243737</v>
+        <v>0.00217414038116903</v>
       </c>
       <c r="D69" t="n">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="E69" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F69" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0730593607305936</v>
+        <v>0.0586319218241042</v>
       </c>
       <c r="I69" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="J69" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K69" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="L69" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M69" t="n">
-        <v>47</v>
+        <v>727</v>
       </c>
       <c r="N69" t="s">
-        <v>191</v>
+        <v>305</v>
+      </c>
+      <c r="O69" t="s">
+        <v>320</v>
+      </c>
+      <c r="P69" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.000664236358076808</v>
+        <v>0.00221196150270271</v>
       </c>
       <c r="D70" t="n">
-        <v>172</v>
+        <v>571</v>
       </c>
       <c r="E70" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F70" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0648148148148148</v>
+        <v>0.11304347826087</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0813953488372093</v>
+        <v>0.0455341506129597</v>
       </c>
       <c r="I70" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="J70" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K70" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="L70" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M70" t="n">
-        <v>703</v>
+        <v>629</v>
       </c>
       <c r="N70" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+      <c r="O70" t="s">
+        <v>324</v>
+      </c>
+      <c r="P70" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.000690745254301257</v>
+        <v>0.00248476511259597</v>
       </c>
       <c r="D71" t="n">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="E71" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F71" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.0580645161290323</v>
       </c>
       <c r="I71" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="J71" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K71" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
       <c r="L71" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M71" t="n">
-        <v>162</v>
+        <v>544</v>
       </c>
       <c r="N71" t="s">
-        <v>197</v>
+        <v>220</v>
+      </c>
+      <c r="O71" t="s">
+        <v>328</v>
+      </c>
+      <c r="P71" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.000750741547436988</v>
+        <v>0.00252661513432024</v>
       </c>
       <c r="D72" t="n">
-        <v>280</v>
+        <v>611</v>
       </c>
       <c r="E72" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F72" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.117391304347826</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0642857142857143</v>
+        <v>0.044189852700491</v>
       </c>
       <c r="I72" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="J72" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K72" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="L72" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M72" t="n">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="N72" t="s">
-        <v>183</v>
+        <v>266</v>
+      </c>
+      <c r="O72" t="s">
+        <v>331</v>
+      </c>
+      <c r="P72" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.000830184973548939</v>
+        <v>0.00255817155536682</v>
       </c>
       <c r="D73" t="n">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="E73" t="n">
+        <v>230</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0521739130434783</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0827586206896552</v>
+      </c>
+      <c r="I73" t="s">
+        <v>311</v>
+      </c>
+      <c r="J73" t="s">
+        <v>191</v>
+      </c>
+      <c r="K73" t="s">
+        <v>333</v>
+      </c>
+      <c r="L73" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M73" t="n">
+        <v>161</v>
+      </c>
+      <c r="N73" t="s">
         <v>216</v>
       </c>
-      <c r="F73" t="n">
-        <v>18</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.0638297872340425</v>
-      </c>
-      <c r="I73" t="s">
-        <v>199</v>
-      </c>
-      <c r="J73" t="s">
-        <v>130</v>
-      </c>
-      <c r="K73" t="s">
-        <v>200</v>
-      </c>
-      <c r="L73" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M73" t="n">
-        <v>519</v>
-      </c>
-      <c r="N73" t="s">
-        <v>149</v>
+      <c r="O73" t="s">
+        <v>312</v>
+      </c>
+      <c r="P73" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000897695732778139</v>
+        <v>0.00298860163756609</v>
       </c>
       <c r="D74" t="n">
-        <v>819</v>
+        <v>284</v>
       </c>
       <c r="E74" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F74" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G74" t="n">
-        <v>0.157407407407407</v>
+        <v>0.0739130434782609</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0415140415140415</v>
+        <v>0.0598591549295775</v>
       </c>
       <c r="I74" t="s">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="J74" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K74" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="L74" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M74" t="n">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="N74" t="s">
-        <v>135</v>
+        <v>336</v>
+      </c>
+      <c r="O74" t="s">
+        <v>337</v>
+      </c>
+      <c r="P74" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.00131848966145762</v>
+        <v>0.00358767913309691</v>
       </c>
       <c r="D75" t="n">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="E75" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F75" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.0739130434782609</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0895522388059701</v>
+        <v>0.0590277777777778</v>
       </c>
       <c r="I75" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="J75" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K75" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="L75" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M75" t="n">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="N75" t="s">
-        <v>145</v>
+        <v>294</v>
+      </c>
+      <c r="O75" t="s">
+        <v>341</v>
+      </c>
+      <c r="P75" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00140044210230554</v>
+        <v>0.00618498611508509</v>
       </c>
       <c r="D76" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E76" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0787037037037037</v>
+        <v>0.0695652173913043</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0643939393939394</v>
+        <v>0.0592592592592593</v>
       </c>
       <c r="I76" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="J76" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K76" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c r="L76" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M76" t="n">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="N76" t="s">
-        <v>191</v>
+        <v>246</v>
+      </c>
+      <c r="O76" t="s">
+        <v>345</v>
+      </c>
+      <c r="P76" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00156986668546548</v>
+        <v>0.00690672594961116</v>
       </c>
       <c r="D77" t="n">
-        <v>517</v>
+        <v>303</v>
       </c>
       <c r="E77" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F77" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G77" t="n">
-        <v>0.115740740740741</v>
+        <v>0.0739130434782609</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0483558994197292</v>
+        <v>0.0561056105610561</v>
       </c>
       <c r="I77" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="J77" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K77" t="s">
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="L77" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M77" t="n">
-        <v>604</v>
+        <v>258</v>
       </c>
       <c r="N77" t="s">
-        <v>136</v>
+        <v>297</v>
+      </c>
+      <c r="O77" t="s">
+        <v>348</v>
+      </c>
+      <c r="P77" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0.00207594268894257</v>
+        <v>0.00712877666996125</v>
       </c>
       <c r="D78" t="n">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="E78" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.0565217391304348</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0857142857142857</v>
+        <v>0.0695187165775401</v>
       </c>
       <c r="I78" t="s">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="J78" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K78" t="s">
-        <v>207</v>
+        <v>351</v>
       </c>
       <c r="L78" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M78" t="n">
-        <v>158</v>
+        <v>546</v>
       </c>
       <c r="N78" t="s">
-        <v>145</v>
+        <v>352</v>
+      </c>
+      <c r="O78" t="s">
+        <v>353</v>
+      </c>
+      <c r="P78" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.00240758411433138</v>
+        <v>0.00736760997646704</v>
       </c>
       <c r="D79" t="n">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="E79" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F79" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0787037037037037</v>
+        <v>0.0521739130434783</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0618181818181818</v>
+        <v>0.0745341614906832</v>
       </c>
       <c r="I79" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="J79" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K79" t="s">
-        <v>208</v>
+        <v>356</v>
       </c>
       <c r="L79" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M79" t="n">
-        <v>258</v>
+        <v>572</v>
       </c>
       <c r="N79" t="s">
-        <v>177</v>
+        <v>227</v>
+      </c>
+      <c r="O79" t="s">
+        <v>357</v>
+      </c>
+      <c r="P79" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.00265938934998423</v>
+        <v>0.00916357044588084</v>
       </c>
       <c r="D80" t="n">
-        <v>168</v>
+        <v>583</v>
       </c>
       <c r="E80" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F80" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0601851851851852</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0773809523809524</v>
+        <v>0.0428816466552316</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c r="J80" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s">
-        <v>210</v>
+        <v>359</v>
       </c>
       <c r="L80" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M80" t="n">
-        <v>521</v>
+        <v>696</v>
       </c>
       <c r="N80" t="s">
-        <v>211</v>
+        <v>360</v>
+      </c>
+      <c r="O80" t="s">
+        <v>361</v>
+      </c>
+      <c r="P80" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.00268967299797384</v>
+        <v>0.0100628318935247</v>
       </c>
       <c r="D81" t="n">
-        <v>568</v>
+        <v>281</v>
       </c>
       <c r="E81" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F81" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G81" t="n">
-        <v>0.12037037037037</v>
+        <v>0.0695652173913043</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0457746478873239</v>
+        <v>0.0569395017793594</v>
       </c>
       <c r="I81" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="J81" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K81" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="L81" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M81" t="n">
-        <v>628</v>
+        <v>214</v>
       </c>
       <c r="N81" t="s">
-        <v>187</v>
+        <v>365</v>
+      </c>
+      <c r="O81" t="s">
+        <v>366</v>
+      </c>
+      <c r="P81" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.00288637712561475</v>
+        <v>0.0100628318935247</v>
       </c>
       <c r="D82" t="n">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="E82" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F82" t="n">
         <v>16</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0695652173913043</v>
       </c>
       <c r="H82" t="n">
-        <v>0.064</v>
+        <v>0.0569395017793594</v>
       </c>
       <c r="I82" t="s">
-        <v>213</v>
+        <v>352</v>
       </c>
       <c r="J82" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K82" t="s">
-        <v>214</v>
+        <v>368</v>
       </c>
       <c r="L82" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M82" t="n">
-        <v>234</v>
+        <v>545</v>
       </c>
       <c r="N82" t="s">
-        <v>164</v>
+        <v>326</v>
+      </c>
+      <c r="O82" t="s">
+        <v>369</v>
+      </c>
+      <c r="P82" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B83" t="b">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.00335171228305775</v>
+        <v>0.0105042619566536</v>
       </c>
       <c r="D83" t="n">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="E83" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F83" t="n">
         <v>16</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0695652173913043</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0632411067193676</v>
+        <v>0.0567375886524823</v>
       </c>
       <c r="I83" t="s">
-        <v>211</v>
+        <v>371</v>
       </c>
       <c r="J83" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K83" t="s">
-        <v>215</v>
+        <v>372</v>
       </c>
       <c r="L83" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M83" t="n">
-        <v>520</v>
+        <v>645</v>
       </c>
       <c r="N83" t="s">
-        <v>199</v>
+        <v>373</v>
+      </c>
+      <c r="O83" t="s">
+        <v>374</v>
+      </c>
+      <c r="P83" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.00352105364782215</v>
+        <v>0.0109212963923688</v>
       </c>
       <c r="D84" t="n">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c r="E84" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F84" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H84" t="n">
-        <v>0.062992125984252</v>
+        <v>0.0957446808510638</v>
       </c>
       <c r="I84" t="s">
-        <v>216</v>
+        <v>376</v>
       </c>
       <c r="J84" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K84" t="s">
-        <v>217</v>
+        <v>377</v>
       </c>
       <c r="L84" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M84" t="n">
-        <v>214</v>
+        <v>573</v>
       </c>
       <c r="N84" t="s">
-        <v>218</v>
+        <v>355</v>
+      </c>
+      <c r="O84" t="s">
+        <v>378</v>
+      </c>
+      <c r="P84" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.00438270617359717</v>
+        <v>0.0114387967641282</v>
       </c>
       <c r="D85" t="n">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="E85" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F85" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0694444444444444</v>
+        <v>0.0695652173913043</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.0563380281690141</v>
       </c>
       <c r="I85" t="s">
-        <v>219</v>
+        <v>380</v>
       </c>
       <c r="J85" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K85" t="s">
-        <v>220</v>
+        <v>381</v>
       </c>
       <c r="L85" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M85" t="n">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="N85" t="s">
-        <v>203</v>
+        <v>382</v>
+      </c>
+      <c r="O85" t="s">
+        <v>383</v>
+      </c>
+      <c r="P85" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0.00448749830663938</v>
+        <v>0.0114389359852974</v>
       </c>
       <c r="D86" t="n">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="E86" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F86" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0304347826086957</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0617760617760618</v>
+        <v>0.12962962962963</v>
       </c>
       <c r="I86" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="J86" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K86" t="s">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="L86" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M86" t="n">
-        <v>261</v>
+        <v>561</v>
       </c>
       <c r="N86" t="s">
-        <v>223</v>
+        <v>387</v>
+      </c>
+      <c r="O86" t="s">
+        <v>388</v>
+      </c>
+      <c r="P86" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B87" t="b">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.00491013259239733</v>
+        <v>0.0116671902051733</v>
       </c>
       <c r="D87" t="n">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="E87" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F87" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H87" t="n">
-        <v>0.107142857142857</v>
+        <v>0.0590551181102362</v>
       </c>
       <c r="I87" t="s">
-        <v>224</v>
+        <v>390</v>
       </c>
       <c r="J87" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K87" t="s">
-        <v>225</v>
+        <v>391</v>
       </c>
       <c r="L87" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M87" t="n">
-        <v>548</v>
+        <v>24</v>
       </c>
       <c r="N87" t="s">
-        <v>226</v>
+        <v>339</v>
+      </c>
+      <c r="O87" t="s">
+        <v>392</v>
+      </c>
+      <c r="P87" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0051085432691371</v>
+        <v>0.0121307800984358</v>
       </c>
       <c r="D88" t="n">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="E88" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F88" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0694444444444444</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0643776824034335</v>
+        <v>0.0515759312320917</v>
       </c>
       <c r="I88" t="s">
-        <v>227</v>
+        <v>382</v>
       </c>
       <c r="J88" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K88" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
       <c r="L88" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M88" t="n">
-        <v>657</v>
+        <v>260</v>
       </c>
       <c r="N88" t="s">
-        <v>185</v>
+        <v>299</v>
+      </c>
+      <c r="O88" t="s">
+        <v>395</v>
+      </c>
+      <c r="P88" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0138275514581679</v>
+      </c>
+      <c r="D89" t="n">
+        <v>228</v>
+      </c>
+      <c r="E89" t="n">
+        <v>230</v>
+      </c>
+      <c r="F89" t="n">
         <v>14</v>
       </c>
-      <c r="B89" t="b">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.00515571509970727</v>
-      </c>
-      <c r="D89" t="n">
-        <v>322</v>
-      </c>
-      <c r="E89" t="n">
-        <v>216</v>
-      </c>
-      <c r="F89" t="n">
-        <v>18</v>
-      </c>
       <c r="G89" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0608695652173913</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0559006211180124</v>
+        <v>0.0614035087719298</v>
       </c>
       <c r="I89" t="s">
-        <v>223</v>
+        <v>397</v>
       </c>
       <c r="J89" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K89" t="s">
-        <v>229</v>
+        <v>398</v>
       </c>
       <c r="L89" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M89" t="n">
-        <v>260</v>
+        <v>566</v>
       </c>
       <c r="N89" t="s">
-        <v>179</v>
+        <v>399</v>
+      </c>
+      <c r="O89" t="s">
+        <v>400</v>
+      </c>
+      <c r="P89" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B90" t="b">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.00517460619145187</v>
+        <v>0.0139571895485569</v>
       </c>
       <c r="D90" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E90" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F90" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0610687022900763</v>
+        <v>0.0581395348837209</v>
       </c>
       <c r="I90" t="s">
-        <v>230</v>
+        <v>402</v>
       </c>
       <c r="J90" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K90" t="s">
-        <v>231</v>
+        <v>403</v>
       </c>
       <c r="L90" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M90" t="n">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="N90" t="s">
-        <v>232</v>
+        <v>288</v>
+      </c>
+      <c r="O90" t="s">
+        <v>404</v>
+      </c>
+      <c r="P90" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.00626245960133507</v>
+        <v>0.0152437081244196</v>
       </c>
       <c r="D91" t="n">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="E91" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F91" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0648148148148148</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0669856459330144</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="I91" t="s">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="J91" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K91" t="s">
-        <v>234</v>
+        <v>407</v>
       </c>
       <c r="L91" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M91" t="n">
-        <v>541</v>
+        <v>741</v>
       </c>
       <c r="N91" t="s">
-        <v>235</v>
+        <v>259</v>
+      </c>
+      <c r="O91" t="s">
+        <v>408</v>
+      </c>
+      <c r="P91" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.00741700074578698</v>
+        <v>0.0162784710145769</v>
       </c>
       <c r="D92" t="n">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="E92" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F92" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0324074074074074</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="H92" t="n">
-        <v>0.14</v>
+        <v>0.0504201680672269</v>
       </c>
       <c r="I92" t="s">
-        <v>236</v>
+        <v>410</v>
       </c>
       <c r="J92" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K92" t="s">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="L92" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M92" t="n">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="N92" t="s">
-        <v>238</v>
+        <v>220</v>
+      </c>
+      <c r="O92" t="s">
+        <v>328</v>
+      </c>
+      <c r="P92" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0.00796510672749654</v>
+        <v>0.0197810775371256</v>
       </c>
       <c r="D93" t="n">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="E93" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F93" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0694444444444444</v>
+        <v>0.0347826086956522</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0619834710743802</v>
+        <v>0.10126582278481</v>
       </c>
       <c r="I93" t="s">
-        <v>239</v>
+        <v>413</v>
       </c>
       <c r="J93" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K93" t="s">
-        <v>240</v>
+        <v>414</v>
       </c>
       <c r="L93" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M93" t="n">
-        <v>716</v>
+        <v>105</v>
       </c>
       <c r="N93" t="s">
-        <v>154</v>
+        <v>415</v>
+      </c>
+      <c r="O93" t="s">
+        <v>416</v>
+      </c>
+      <c r="P93" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B94" t="b">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.00838755351663699</v>
+        <v>0.0231644680859216</v>
       </c>
       <c r="D94" t="n">
-        <v>535</v>
+        <v>181</v>
       </c>
       <c r="E94" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F94" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G94" t="n">
-        <v>0.111111111111111</v>
+        <v>0.0521739130434783</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0448598130841121</v>
+        <v>0.0662983425414365</v>
       </c>
       <c r="I94" t="s">
-        <v>232</v>
+        <v>418</v>
       </c>
       <c r="J94" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K94" t="s">
-        <v>241</v>
+        <v>419</v>
       </c>
       <c r="L94" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M94" t="n">
-        <v>671</v>
+        <v>48</v>
       </c>
       <c r="N94" t="s">
-        <v>242</v>
+        <v>292</v>
+      </c>
+      <c r="O94" t="s">
+        <v>420</v>
+      </c>
+      <c r="P94" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B95" t="b">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.00935652874643036</v>
+        <v>0.0237556027699056</v>
       </c>
       <c r="D95" t="n">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="E95" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F95" t="n">
         <v>16</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0695652173913043</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0581818181818182</v>
+        <v>0.0529801324503311</v>
       </c>
       <c r="I95" t="s">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="J95" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K95" t="s">
-        <v>243</v>
+        <v>422</v>
       </c>
       <c r="L95" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M95" t="n">
         <v>213</v>
       </c>
       <c r="N95" t="s">
-        <v>164</v>
+        <v>246</v>
+      </c>
+      <c r="O95" t="s">
+        <v>366</v>
+      </c>
+      <c r="P95" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.011258659575341</v>
+        <v>0.0242505979673445</v>
       </c>
       <c r="D96" t="n">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="E96" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F96" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0509259259259259</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0785714285714286</v>
+        <v>0.0865384615384615</v>
       </c>
       <c r="I96" t="s">
-        <v>226</v>
+        <v>423</v>
       </c>
       <c r="J96" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K96" t="s">
-        <v>244</v>
+        <v>424</v>
       </c>
       <c r="L96" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M96" t="n">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="N96" t="s">
-        <v>155</v>
+        <v>220</v>
+      </c>
+      <c r="O96" t="s">
+        <v>425</v>
+      </c>
+      <c r="P96" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B97" t="b">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0132235218241344</v>
+        <v>0.0286945449712544</v>
       </c>
       <c r="D97" t="n">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="E97" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F97" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0565217391304348</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0947368421052632</v>
+        <v>0.0607476635514019</v>
       </c>
       <c r="I97" t="s">
-        <v>245</v>
+        <v>427</v>
       </c>
       <c r="J97" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K97" t="s">
-        <v>246</v>
+        <v>428</v>
       </c>
       <c r="L97" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M97" t="n">
-        <v>534</v>
+        <v>640</v>
       </c>
       <c r="N97" t="s">
-        <v>149</v>
+        <v>203</v>
+      </c>
+      <c r="O97" t="s">
+        <v>429</v>
+      </c>
+      <c r="P97" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B98" t="b">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0139198874086196</v>
+        <v>0.0288809152296118</v>
       </c>
       <c r="D98" t="n">
-        <v>254</v>
+        <v>551</v>
       </c>
       <c r="E98" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F98" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0694444444444444</v>
+        <v>0.1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0590551181102362</v>
+        <v>0.0417422867513612</v>
       </c>
       <c r="I98" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="J98" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K98" t="s">
-        <v>248</v>
+        <v>431</v>
       </c>
       <c r="L98" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M98" t="n">
-        <v>526</v>
+        <v>644</v>
       </c>
       <c r="N98" t="s">
-        <v>249</v>
+        <v>432</v>
+      </c>
+      <c r="O98" t="s">
+        <v>433</v>
+      </c>
+      <c r="P98" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B99" t="b">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0145587568456442</v>
+        <v>0.029875058557409</v>
       </c>
       <c r="D99" t="n">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E99" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F99" t="n">
         <v>15</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0694444444444444</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0543478260869565</v>
       </c>
       <c r="I99" t="s">
-        <v>250</v>
+        <v>435</v>
       </c>
       <c r="J99" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K99" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="L99" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M99" t="n">
-        <v>620</v>
+        <v>551</v>
       </c>
       <c r="N99" t="s">
-        <v>252</v>
+        <v>410</v>
+      </c>
+      <c r="O99" t="s">
+        <v>437</v>
+      </c>
+      <c r="P99" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B100" t="b">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0149040304916796</v>
+        <v>0.0322992290040776</v>
       </c>
       <c r="D100" t="n">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="E100" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F100" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G100" t="n">
-        <v>0.037037037037037</v>
+        <v>0.0739130434782609</v>
       </c>
       <c r="H100" t="n">
-        <v>0.106666666666667</v>
+        <v>0.0495626822157434</v>
       </c>
       <c r="I100" t="s">
-        <v>253</v>
+        <v>439</v>
       </c>
       <c r="J100" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K100" t="s">
-        <v>254</v>
+        <v>440</v>
       </c>
       <c r="L100" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M100" t="n">
-        <v>105</v>
+        <v>666</v>
       </c>
       <c r="N100" t="s">
-        <v>255</v>
+        <v>441</v>
+      </c>
+      <c r="O100" t="s">
+        <v>442</v>
+      </c>
+      <c r="P100" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B101" t="b">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0154109120596895</v>
+        <v>0.0326213537222485</v>
       </c>
       <c r="D101" t="n">
-        <v>171</v>
+        <v>708</v>
       </c>
       <c r="E101" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F101" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.117391304347826</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0701754385964912</v>
+        <v>0.038135593220339</v>
       </c>
       <c r="I101" t="s">
-        <v>256</v>
+        <v>444</v>
       </c>
       <c r="J101" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K101" t="s">
-        <v>257</v>
+        <v>445</v>
       </c>
       <c r="L101" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M101" t="n">
-        <v>48</v>
+        <v>713</v>
       </c>
       <c r="N101" t="s">
-        <v>189</v>
+        <v>198</v>
+      </c>
+      <c r="O101" t="s">
+        <v>446</v>
+      </c>
+      <c r="P101" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B102" t="b">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0205469322199107</v>
+        <v>0.0352938709245962</v>
       </c>
       <c r="D102" t="n">
-        <v>391</v>
+        <v>634</v>
       </c>
       <c r="E102" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F102" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G102" t="n">
-        <v>0.087962962962963</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0485933503836317</v>
+        <v>0.0394321766561514</v>
       </c>
       <c r="I102" t="s">
-        <v>258</v>
+        <v>448</v>
       </c>
       <c r="J102" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K102" t="s">
-        <v>259</v>
+        <v>449</v>
       </c>
       <c r="L102" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M102" t="n">
-        <v>493</v>
+        <v>661</v>
       </c>
       <c r="N102" t="s">
-        <v>260</v>
+        <v>203</v>
+      </c>
+      <c r="O102" t="s">
+        <v>450</v>
+      </c>
+      <c r="P102" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B103" t="b">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0225074071479963</v>
+        <v>0.0376242848457942</v>
       </c>
       <c r="D103" t="n">
-        <v>265</v>
+        <v>416</v>
       </c>
       <c r="E103" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F103" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0694444444444444</v>
+        <v>0.0826086956521739</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.0456730769230769</v>
       </c>
       <c r="I103" t="s">
-        <v>261</v>
+        <v>452</v>
       </c>
       <c r="J103" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K103" t="s">
-        <v>262</v>
+        <v>453</v>
       </c>
       <c r="L103" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M103" t="n">
-        <v>705</v>
+        <v>518</v>
       </c>
       <c r="N103" t="s">
-        <v>152</v>
+        <v>454</v>
+      </c>
+      <c r="O103" t="s">
+        <v>455</v>
+      </c>
+      <c r="P103" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B104" t="b">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0226745957150066</v>
+        <v>0.0426300915113572</v>
       </c>
       <c r="D104" t="n">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="E104" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F104" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0787037037037037</v>
+        <v>0.0521739130434783</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0518292682926829</v>
+        <v>0.0621761658031088</v>
       </c>
       <c r="I104" t="s">
-        <v>249</v>
+        <v>457</v>
       </c>
       <c r="J104" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K104" t="s">
-        <v>263</v>
+        <v>458</v>
       </c>
       <c r="L104" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M104" t="n">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="N104" t="s">
-        <v>149</v>
+        <v>220</v>
+      </c>
+      <c r="O104" t="s">
+        <v>459</v>
+      </c>
+      <c r="P104" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B105" t="b">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0238369670985546</v>
+        <v>0.0442659069884773</v>
       </c>
       <c r="D105" t="n">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="E105" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0601851851851852</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0628019323671498</v>
+        <v>0.0524475524475524</v>
       </c>
       <c r="I105" t="s">
-        <v>264</v>
+        <v>461</v>
       </c>
       <c r="J105" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K105" t="s">
-        <v>265</v>
+        <v>462</v>
       </c>
       <c r="L105" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M105" t="n">
-        <v>235</v>
+        <v>730</v>
       </c>
       <c r="N105" t="s">
-        <v>213</v>
+        <v>257</v>
+      </c>
+      <c r="O105" t="s">
+        <v>463</v>
+      </c>
+      <c r="P105" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B106" t="b">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.024956348041347</v>
+        <v>0.0473554982040775</v>
       </c>
       <c r="D106" t="n">
-        <v>501</v>
+        <v>225</v>
       </c>
       <c r="E106" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F106" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G106" t="n">
-        <v>0.101851851851852</v>
+        <v>0.0565217391304348</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0439121756487026</v>
+        <v>0.0577777777777778</v>
       </c>
       <c r="I106" t="s">
-        <v>252</v>
+        <v>465</v>
       </c>
       <c r="J106" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K106" t="s">
-        <v>266</v>
+        <v>466</v>
       </c>
       <c r="L106" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M106" t="n">
-        <v>619</v>
+        <v>235</v>
       </c>
       <c r="N106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" t="b">
-        <v>1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.0270464324961485</v>
-      </c>
-      <c r="D107" t="n">
-        <v>239</v>
-      </c>
-      <c r="E107" t="n">
-        <v>216</v>
-      </c>
-      <c r="F107" t="n">
-        <v>14</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.0648148148148148</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.0585774058577406</v>
-      </c>
-      <c r="I107" t="s">
-        <v>268</v>
-      </c>
-      <c r="J107" t="s">
-        <v>130</v>
-      </c>
-      <c r="K107" t="s">
-        <v>269</v>
-      </c>
-      <c r="L107" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M107" t="n">
-        <v>150</v>
-      </c>
-      <c r="N107" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" t="b">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.0275616465510873</v>
-      </c>
-      <c r="D108" t="n">
-        <v>577</v>
-      </c>
-      <c r="E108" t="n">
-        <v>216</v>
-      </c>
-      <c r="F108" t="n">
-        <v>24</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.111111111111111</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.0415944540727903</v>
-      </c>
-      <c r="I108" t="s">
-        <v>271</v>
-      </c>
-      <c r="J108" t="s">
-        <v>130</v>
-      </c>
-      <c r="K108" t="s">
-        <v>272</v>
-      </c>
-      <c r="L108" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M108" t="n">
-        <v>636</v>
-      </c>
-      <c r="N108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" t="b">
-        <v>1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.0293031630888109</v>
-      </c>
-      <c r="D109" t="n">
-        <v>654</v>
-      </c>
-      <c r="E109" t="n">
-        <v>216</v>
-      </c>
-      <c r="F109" t="n">
-        <v>26</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.12037037037037</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.0397553516819572</v>
-      </c>
-      <c r="I109" t="s">
-        <v>273</v>
-      </c>
-      <c r="J109" t="s">
-        <v>130</v>
-      </c>
-      <c r="K109" t="s">
-        <v>274</v>
-      </c>
-      <c r="L109" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M109" t="n">
-        <v>688</v>
-      </c>
-      <c r="N109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" t="b">
-        <v>1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.0295496174984597</v>
-      </c>
-      <c r="D110" t="n">
-        <v>241</v>
-      </c>
-      <c r="E110" t="n">
-        <v>216</v>
-      </c>
-      <c r="F110" t="n">
-        <v>14</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.0648148148148148</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.0580912863070539</v>
-      </c>
-      <c r="I110" t="s">
-        <v>275</v>
-      </c>
-      <c r="J110" t="s">
-        <v>130</v>
-      </c>
-      <c r="K110" t="s">
-        <v>276</v>
-      </c>
-      <c r="L110" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M110" t="n">
-        <v>220</v>
-      </c>
-      <c r="N110" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" t="b">
-        <v>1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.0324950483799301</v>
-      </c>
-      <c r="D111" t="n">
-        <v>371</v>
-      </c>
-      <c r="E111" t="n">
-        <v>216</v>
-      </c>
-      <c r="F111" t="n">
-        <v>18</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.0485175202156334</v>
-      </c>
-      <c r="I111" t="s">
-        <v>278</v>
-      </c>
-      <c r="J111" t="s">
-        <v>130</v>
-      </c>
-      <c r="K111" t="s">
-        <v>279</v>
-      </c>
-      <c r="L111" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M111" t="n">
-        <v>502</v>
-      </c>
-      <c r="N111" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" t="b">
-        <v>1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.0364849108916159</v>
-      </c>
-      <c r="D112" t="n">
-        <v>85</v>
-      </c>
-      <c r="E112" t="n">
-        <v>216</v>
-      </c>
-      <c r="F112" t="n">
-        <v>8</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.037037037037037</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.0941176470588235</v>
-      </c>
-      <c r="I112" t="s">
-        <v>238</v>
-      </c>
-      <c r="J112" t="s">
-        <v>130</v>
-      </c>
-      <c r="K112" t="s">
-        <v>280</v>
-      </c>
-      <c r="L112" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M112" t="n">
-        <v>535</v>
-      </c>
-      <c r="N112" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" t="b">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.0381992783748832</v>
-      </c>
-      <c r="D113" t="n">
-        <v>742</v>
-      </c>
-      <c r="E113" t="n">
-        <v>216</v>
-      </c>
-      <c r="F113" t="n">
-        <v>28</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.12962962962963</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.0377358490566038</v>
-      </c>
-      <c r="I113" t="s">
-        <v>242</v>
-      </c>
-      <c r="J113" t="s">
-        <v>130</v>
-      </c>
-      <c r="K113" t="s">
-        <v>281</v>
-      </c>
-      <c r="L113" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M113" t="n">
-        <v>670</v>
-      </c>
-      <c r="N113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" t="b">
-        <v>1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.0385575456804201</v>
-      </c>
-      <c r="D114" t="n">
-        <v>310</v>
-      </c>
-      <c r="E114" t="n">
-        <v>216</v>
-      </c>
-      <c r="F114" t="n">
-        <v>16</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.0740740740740741</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.0516129032258065</v>
-      </c>
-      <c r="I114" t="s">
-        <v>282</v>
-      </c>
-      <c r="J114" t="s">
-        <v>130</v>
-      </c>
-      <c r="K114" t="s">
-        <v>283</v>
-      </c>
-      <c r="L114" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M114" t="n">
-        <v>26</v>
-      </c>
-      <c r="N114" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" t="b">
-        <v>1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.0434691682992427</v>
-      </c>
-      <c r="D115" t="n">
-        <v>250</v>
-      </c>
-      <c r="E115" t="n">
-        <v>216</v>
-      </c>
-      <c r="F115" t="n">
-        <v>14</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.0648148148148148</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="I115" t="s">
-        <v>235</v>
-      </c>
-      <c r="J115" t="s">
-        <v>130</v>
-      </c>
-      <c r="K115" t="s">
-        <v>284</v>
-      </c>
-      <c r="L115" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M115" t="n">
-        <v>540</v>
-      </c>
-      <c r="N115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" t="b">
-        <v>1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.0437344255456417</v>
-      </c>
-      <c r="D116" t="n">
-        <v>136</v>
-      </c>
-      <c r="E116" t="n">
-        <v>216</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.0462962962962963</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.0735294117647059</v>
-      </c>
-      <c r="I116" t="s">
-        <v>285</v>
-      </c>
-      <c r="J116" t="s">
-        <v>130</v>
-      </c>
-      <c r="K116" t="s">
-        <v>286</v>
-      </c>
-      <c r="L116" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M116" t="n">
-        <v>151</v>
-      </c>
-      <c r="N116" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" t="b">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.0463262704214751</v>
-      </c>
-      <c r="D117" t="n">
-        <v>315</v>
-      </c>
-      <c r="E117" t="n">
-        <v>216</v>
-      </c>
-      <c r="F117" t="n">
-        <v>16</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.0740740740740741</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.0507936507936508</v>
-      </c>
-      <c r="I117" t="s">
-        <v>287</v>
-      </c>
-      <c r="J117" t="s">
-        <v>130</v>
-      </c>
-      <c r="K117" t="s">
-        <v>288</v>
-      </c>
-      <c r="L117" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M117" t="n">
-        <v>641</v>
-      </c>
-      <c r="N117" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" t="b">
-        <v>1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.0488763546864009</v>
-      </c>
-      <c r="D118" t="n">
-        <v>193</v>
-      </c>
-      <c r="E118" t="n">
-        <v>216</v>
-      </c>
-      <c r="F118" t="n">
-        <v>12</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.0555555555555556</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.0621761658031088</v>
-      </c>
-      <c r="I118" t="s">
-        <v>290</v>
-      </c>
-      <c r="J118" t="s">
-        <v>130</v>
-      </c>
-      <c r="K118" t="s">
-        <v>291</v>
-      </c>
-      <c r="L118" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M118" t="n">
-        <v>615</v>
-      </c>
-      <c r="N118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" t="b">
-        <v>1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.0499315303312054</v>
-      </c>
-      <c r="D119" t="n">
-        <v>67</v>
-      </c>
-      <c r="E119" t="n">
-        <v>216</v>
-      </c>
-      <c r="F119" t="n">
-        <v>7</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.0324074074074074</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.104477611940299</v>
-      </c>
-      <c r="I119" t="s">
-        <v>292</v>
-      </c>
-      <c r="J119" t="s">
-        <v>130</v>
-      </c>
-      <c r="K119" t="s">
-        <v>293</v>
-      </c>
-      <c r="L119" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M119" t="n">
-        <v>163</v>
-      </c>
-      <c r="N119" t="s">
-        <v>195</v>
+        <v>343</v>
+      </c>
+      <c r="O106" t="s">
+        <v>467</v>
+      </c>
+      <c r="P106" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
